--- a/test19-function-2/dssim.xlsx
+++ b/test19-function-2/dssim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26180" windowHeight="17500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ddsim-optimized.tsv" sheetId="1" r:id="rId1"/>
@@ -3471,8 +3471,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3586,7 +3624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3635,6 +3673,25 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3683,6 +3740,25 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4014,9 +4090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123:R123"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="S123" sqref="S123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4156,7 +4232,7 @@
         <v>863</v>
       </c>
       <c r="H3" s="6">
-        <v>6.9449999999999998E-3</v>
+        <v>0.36633700000000002</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>743</v>
@@ -4212,7 +4288,7 @@
         <v>864</v>
       </c>
       <c r="H4" s="6">
-        <v>6.2719999999999998E-3</v>
+        <v>0.38939299999999999</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>744</v>
@@ -4268,7 +4344,7 @@
         <v>865</v>
       </c>
       <c r="H5" s="6">
-        <v>9.5670000000000009E-3</v>
+        <v>0.44231300000000001</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>745</v>
@@ -4324,7 +4400,7 @@
         <v>866</v>
       </c>
       <c r="H6" s="6">
-        <v>2.2988999999999999E-2</v>
+        <v>0.28173700000000002</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>746</v>
@@ -4362,7 +4438,7 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="6">
-        <v>1.1105E-2</v>
+        <v>1.1139E-2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>27</v>
@@ -4380,7 +4456,7 @@
         <v>867</v>
       </c>
       <c r="H7" s="6">
-        <v>1.1105E-2</v>
+        <v>0.14727199999999999</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>747</v>
@@ -4398,7 +4474,7 @@
         <v>507</v>
       </c>
       <c r="N7" s="6">
-        <v>1.5242E-2</v>
+        <v>1.5285999999999999E-2</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>387</v>
@@ -4436,7 +4512,7 @@
         <v>868</v>
       </c>
       <c r="H8" s="2">
-        <v>5.574E-3</v>
+        <v>0.22431499999999999</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>748</v>
@@ -4474,7 +4550,7 @@
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="2">
-        <v>1.0146000000000001E-2</v>
+        <v>1.0147E-2</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>29</v>
@@ -4492,13 +4568,13 @@
         <v>869</v>
       </c>
       <c r="H9" s="2">
-        <v>1.0146000000000001E-2</v>
+        <v>1.1371180000000001</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>749</v>
       </c>
       <c r="J9" s="2">
-        <v>1.6627540000000001</v>
+        <v>1.662919</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>629</v>
@@ -4510,13 +4586,13 @@
         <v>509</v>
       </c>
       <c r="N9" s="2">
-        <v>2.5767999999999999E-2</v>
+        <v>2.5853999999999999E-2</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>389</v>
       </c>
       <c r="P9" s="2">
-        <v>4.999E-3</v>
+        <v>5.0080000000000003E-3</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>269</v>
@@ -4530,7 +4606,7 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="2">
-        <v>9.2000000000000003E-4</v>
+        <v>9.2100000000000005E-4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>30</v>
@@ -4548,13 +4624,13 @@
         <v>870</v>
       </c>
       <c r="H10" s="2">
-        <v>9.2000000000000003E-4</v>
+        <v>1.64476</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>750</v>
       </c>
       <c r="J10" s="2">
-        <v>1.6125890000000001</v>
+        <v>1.6126560000000001</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>630</v>
@@ -4566,13 +4642,13 @@
         <v>510</v>
       </c>
       <c r="N10" s="2">
-        <v>7.2649999999999998E-3</v>
+        <v>7.5119999999999996E-3</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>390</v>
       </c>
       <c r="P10" s="2">
-        <v>2.1050000000000001E-3</v>
+        <v>2.111E-3</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>270</v>
@@ -4604,13 +4680,13 @@
         <v>871</v>
       </c>
       <c r="H11" s="2">
-        <v>6.2600000000000004E-4</v>
+        <v>1.1514439999999999</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>751</v>
       </c>
       <c r="J11" s="2">
-        <v>0.91425800000000002</v>
+        <v>0.91424799999999995</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>631</v>
@@ -4622,13 +4698,13 @@
         <v>511</v>
       </c>
       <c r="N11" s="2">
-        <v>4.6319999999999998E-3</v>
+        <v>4.6360000000000004E-3</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>391</v>
       </c>
       <c r="P11" s="2">
-        <v>1.4239999999999999E-3</v>
+        <v>1.4250000000000001E-3</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>271</v>
@@ -4660,7 +4736,7 @@
         <v>872</v>
       </c>
       <c r="H12" s="6">
-        <v>6.744E-3</v>
+        <v>0.44843100000000002</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>752</v>
@@ -4678,7 +4754,7 @@
         <v>512</v>
       </c>
       <c r="N12" s="6">
-        <v>8.2629999999999995E-3</v>
+        <v>8.2620000000000002E-3</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>392</v>
@@ -4716,7 +4792,7 @@
         <v>873</v>
       </c>
       <c r="H13" s="6">
-        <v>1.0892000000000001E-2</v>
+        <v>0.44130200000000003</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>753</v>
@@ -4734,7 +4810,7 @@
         <v>513</v>
       </c>
       <c r="N13" s="6">
-        <v>1.3873E-2</v>
+        <v>1.3873999999999999E-2</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>393</v>
@@ -4754,7 +4830,7 @@
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="6">
-        <v>1.4524E-2</v>
+        <v>1.4534E-2</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>34</v>
@@ -4772,7 +4848,7 @@
         <v>874</v>
       </c>
       <c r="H14" s="6">
-        <v>1.4524E-2</v>
+        <v>0.40537000000000001</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>754</v>
@@ -4790,7 +4866,7 @@
         <v>514</v>
       </c>
       <c r="N14" s="6">
-        <v>2.0830000000000001E-2</v>
+        <v>2.0837000000000001E-2</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>394</v>
@@ -4810,7 +4886,7 @@
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="6">
-        <v>2.2261E-2</v>
+        <v>2.2366E-2</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>35</v>
@@ -4822,13 +4898,13 @@
         <v>995</v>
       </c>
       <c r="F15" s="6">
-        <v>9.1350000000000008E-3</v>
+        <v>9.1529999999999997E-3</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>875</v>
       </c>
       <c r="H15" s="6">
-        <v>2.2261E-2</v>
+        <v>0.21287400000000001</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>755</v>
@@ -4840,25 +4916,25 @@
         <v>635</v>
       </c>
       <c r="L15" s="6">
-        <v>9.1350000000000008E-3</v>
+        <v>9.1529999999999997E-3</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>515</v>
       </c>
       <c r="N15" s="6">
-        <v>2.7725E-2</v>
+        <v>2.7886999999999999E-2</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>395</v>
       </c>
       <c r="P15" s="6">
-        <v>1.0177E-2</v>
+        <v>1.0182E-2</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>275</v>
       </c>
       <c r="R15" s="6">
-        <v>9.3779999999999992E-3</v>
+        <v>9.3930000000000003E-3</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>155</v>
@@ -4866,13 +4942,13 @@
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="6">
-        <v>1.4057E-2</v>
+        <v>1.4076E-2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="6">
-        <v>1.1604E-2</v>
+        <v>1.1606E-2</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>996</v>
@@ -4884,7 +4960,7 @@
         <v>876</v>
       </c>
       <c r="H16" s="6">
-        <v>1.4057E-2</v>
+        <v>0.35821700000000001</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>756</v>
@@ -4902,13 +4978,13 @@
         <v>516</v>
       </c>
       <c r="N16" s="6">
-        <v>1.8412999999999999E-2</v>
+        <v>1.8466E-2</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>396</v>
       </c>
       <c r="P16" s="6">
-        <v>1.1983000000000001E-2</v>
+        <v>1.1984E-2</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>276</v>
@@ -4922,7 +4998,7 @@
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="6">
-        <v>9.7479999999999997E-3</v>
+        <v>9.75E-3</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>37</v>
@@ -4940,13 +5016,13 @@
         <v>877</v>
       </c>
       <c r="H17" s="6">
-        <v>9.7479999999999997E-3</v>
+        <v>0.37170799999999998</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>757</v>
       </c>
       <c r="J17" s="6">
-        <v>0.38435999999999998</v>
+        <v>0.38436199999999998</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>637</v>
@@ -4958,13 +5034,13 @@
         <v>517</v>
       </c>
       <c r="N17" s="6">
-        <v>1.2409E-2</v>
+        <v>1.243E-2</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>397</v>
       </c>
       <c r="P17" s="6">
-        <v>9.0699999999999999E-3</v>
+        <v>9.0709999999999992E-3</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>277</v>
@@ -4978,55 +5054,55 @@
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="2">
-        <v>4.8517999999999999E-2</v>
+        <v>5.0069000000000002E-2</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>4.2764999999999997E-2</v>
+        <v>4.2873000000000001E-2</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>998</v>
       </c>
       <c r="F18" s="2">
-        <v>4.3846999999999997E-2</v>
+        <v>4.3859000000000002E-2</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>878</v>
       </c>
       <c r="H18" s="2">
-        <v>4.8517999999999999E-2</v>
+        <v>0.68926100000000001</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>758</v>
       </c>
       <c r="J18" s="2">
-        <v>0.72481200000000001</v>
+        <v>0.72472999999999999</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>638</v>
       </c>
       <c r="L18" s="2">
-        <v>4.3846999999999997E-2</v>
+        <v>4.3859000000000002E-2</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>518</v>
       </c>
       <c r="N18" s="2">
-        <v>7.0430000000000006E-2</v>
+        <v>7.4205999999999994E-2</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>398</v>
       </c>
       <c r="P18" s="2">
-        <v>4.4784999999999998E-2</v>
+        <v>4.4923999999999999E-2</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>278</v>
       </c>
       <c r="R18" s="2">
-        <v>4.3846999999999997E-2</v>
+        <v>4.3859000000000002E-2</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>158</v>
@@ -5034,7 +5110,7 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="2">
-        <v>3.5860000000000002E-3</v>
+        <v>3.7209999999999999E-3</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>39</v>
@@ -5052,13 +5128,13 @@
         <v>879</v>
       </c>
       <c r="H19" s="2">
-        <v>3.5860000000000002E-3</v>
+        <v>0.83039200000000002</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>759</v>
       </c>
       <c r="J19" s="2">
-        <v>1.037758</v>
+        <v>1.0377400000000001</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>639</v>
@@ -5070,13 +5146,13 @@
         <v>519</v>
       </c>
       <c r="N19" s="2">
-        <v>5.1310000000000001E-3</v>
+        <v>5.4120000000000001E-3</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>399</v>
       </c>
       <c r="P19" s="2">
-        <v>1.346E-3</v>
+        <v>1.348E-3</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>279</v>
@@ -5090,55 +5166,55 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="2">
-        <v>9.0349999999999996E-3</v>
+        <v>9.2160000000000002E-3</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="2">
-        <v>6.3550000000000004E-3</v>
+        <v>6.3559999999999997E-3</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>1000</v>
       </c>
       <c r="F20" s="2">
-        <v>6.4609999999999997E-3</v>
+        <v>6.4599999999999996E-3</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>880</v>
       </c>
       <c r="H20" s="2">
-        <v>9.0349999999999996E-3</v>
+        <v>0.97914599999999996</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>760</v>
       </c>
       <c r="J20" s="2">
-        <v>1.407786</v>
+        <v>1.4067609999999999</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>640</v>
       </c>
       <c r="L20" s="2">
-        <v>6.4609999999999997E-3</v>
+        <v>6.4599999999999996E-3</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>520</v>
       </c>
       <c r="N20" s="2">
-        <v>1.3845E-2</v>
+        <v>1.4227999999999999E-2</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>400</v>
       </c>
       <c r="P20" s="2">
-        <v>6.8120000000000003E-3</v>
+        <v>6.8180000000000003E-3</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>280</v>
       </c>
       <c r="R20" s="2">
-        <v>6.4609999999999997E-3</v>
+        <v>6.4599999999999996E-3</v>
       </c>
       <c r="S20" s="12" t="s">
         <v>160</v>
@@ -5146,55 +5222,55 @@
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="6">
-        <v>5.2240000000000003E-3</v>
+        <v>5.8459999999999996E-3</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="6">
-        <v>1.776E-3</v>
+        <v>1.7780000000000001E-3</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>1001</v>
       </c>
       <c r="F21" s="6">
-        <v>1.921E-3</v>
+        <v>1.951E-3</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>881</v>
       </c>
       <c r="H21" s="6">
-        <v>5.2240000000000003E-3</v>
+        <v>0.13286200000000001</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>761</v>
       </c>
       <c r="J21" s="6">
-        <v>0.65853099999999998</v>
+        <v>0.65763300000000002</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>641</v>
       </c>
       <c r="L21" s="6">
-        <v>1.921E-3</v>
+        <v>1.951E-3</v>
       </c>
       <c r="M21" s="11" t="s">
         <v>521</v>
       </c>
       <c r="N21" s="6">
-        <v>7.7330000000000003E-3</v>
+        <v>8.8380000000000004E-3</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>401</v>
       </c>
       <c r="P21" s="6">
-        <v>2.0349999999999999E-3</v>
+        <v>2.052E-3</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>281</v>
       </c>
       <c r="R21" s="6">
-        <v>1.921E-3</v>
+        <v>1.951E-3</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>161</v>
@@ -5202,7 +5278,7 @@
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="2">
-        <v>1.1042E-2</v>
+        <v>1.1048000000000001E-2</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>42</v>
@@ -5220,13 +5296,13 @@
         <v>882</v>
       </c>
       <c r="H22" s="2">
-        <v>1.1042E-2</v>
+        <v>0.73569399999999996</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>762</v>
       </c>
       <c r="J22" s="2">
-        <v>0.92166499999999996</v>
+        <v>0.92169000000000001</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>642</v>
@@ -5238,7 +5314,7 @@
         <v>522</v>
       </c>
       <c r="N22" s="2">
-        <v>1.7257999999999999E-2</v>
+        <v>1.7274999999999999E-2</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>402</v>
@@ -5258,25 +5334,25 @@
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="6">
-        <v>2.3753E-2</v>
+        <v>2.4438999999999999E-2</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="6">
-        <v>5.8380000000000003E-3</v>
+        <v>5.8409999999999998E-3</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>1003</v>
       </c>
       <c r="F23" s="6">
-        <v>6.2059999999999997E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>883</v>
       </c>
       <c r="H23" s="6">
-        <v>2.3753E-2</v>
+        <v>0.27975699999999998</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>763</v>
@@ -5288,25 +5364,25 @@
         <v>643</v>
       </c>
       <c r="L23" s="6">
-        <v>6.2059999999999997E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>523</v>
       </c>
       <c r="N23" s="6">
-        <v>2.7483E-2</v>
+        <v>2.8322E-2</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>403</v>
       </c>
       <c r="P23" s="6">
-        <v>7.5719999999999997E-3</v>
+        <v>7.6030000000000004E-3</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>283</v>
       </c>
       <c r="R23" s="6">
-        <v>6.6670000000000002E-3</v>
+        <v>6.7080000000000004E-3</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>163</v>
@@ -5314,55 +5390,55 @@
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="6">
-        <v>2.1687999999999999E-2</v>
+        <v>2.1766000000000001E-2</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="6">
-        <v>2.9009999999999999E-3</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>1004</v>
       </c>
       <c r="F24" s="6">
-        <v>2.8110000000000001E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>884</v>
       </c>
       <c r="H24" s="6">
-        <v>2.1687999999999999E-2</v>
+        <v>0.17710200000000001</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>764</v>
       </c>
       <c r="J24" s="6">
-        <v>0.361458</v>
+        <v>0.36145899999999997</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>644</v>
       </c>
       <c r="L24" s="6">
-        <v>2.8110000000000001E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>524</v>
       </c>
       <c r="N24" s="6">
-        <v>3.2242E-2</v>
+        <v>3.2391000000000003E-2</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>404</v>
       </c>
       <c r="P24" s="6">
-        <v>3.2070000000000002E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>284</v>
       </c>
       <c r="R24" s="6">
-        <v>3.0130000000000001E-3</v>
+        <v>3.0179999999999998E-3</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>164</v>
@@ -5370,7 +5446,7 @@
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="6">
-        <v>1.6410000000000001E-3</v>
+        <v>1.686E-3</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>45</v>
@@ -5382,43 +5458,43 @@
         <v>1005</v>
       </c>
       <c r="F25" s="6">
-        <v>9.5699999999999995E-4</v>
+        <v>9.6100000000000005E-4</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>885</v>
       </c>
       <c r="H25" s="6">
-        <v>1.6410000000000001E-3</v>
+        <v>8.3571000000000006E-2</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>765</v>
       </c>
       <c r="J25" s="6">
-        <v>0.133355</v>
+        <v>0.13336500000000001</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>645</v>
       </c>
       <c r="L25" s="6">
-        <v>9.5699999999999995E-4</v>
+        <v>9.6100000000000005E-4</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>525</v>
       </c>
       <c r="N25" s="6">
-        <v>2.5209999999999998E-3</v>
+        <v>2.5409999999999999E-3</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>405</v>
       </c>
       <c r="P25" s="6">
-        <v>9.810000000000001E-4</v>
+        <v>9.859999999999999E-4</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>285</v>
       </c>
       <c r="R25" s="6">
-        <v>9.5699999999999995E-4</v>
+        <v>9.6100000000000005E-4</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>165</v>
@@ -5426,55 +5502,55 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="6">
-        <v>4.7679999999999997E-3</v>
+        <v>4.7759999999999999E-3</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="6">
-        <v>3.9579999999999997E-3</v>
+        <v>3.9529999999999999E-3</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>1006</v>
       </c>
       <c r="F26" s="6">
-        <v>3.5620000000000001E-3</v>
+        <v>3.6350000000000002E-3</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>886</v>
       </c>
       <c r="H26" s="6">
-        <v>4.7679999999999997E-3</v>
+        <v>0.122417</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>766</v>
       </c>
       <c r="J26" s="6">
-        <v>0.13636599999999999</v>
+        <v>0.136383</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>646</v>
       </c>
       <c r="L26" s="6">
-        <v>3.5620000000000001E-3</v>
+        <v>3.6350000000000002E-3</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>526</v>
       </c>
       <c r="N26" s="6">
-        <v>8.4349999999999998E-3</v>
+        <v>8.5529999999999998E-3</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>406</v>
       </c>
       <c r="P26" s="6">
-        <v>4.7600000000000003E-3</v>
+        <v>4.7559999999999998E-3</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>286</v>
       </c>
       <c r="R26" s="6">
-        <v>3.5620000000000001E-3</v>
+        <v>3.6350000000000002E-3</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>166</v>
@@ -5482,13 +5558,13 @@
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="2">
-        <v>1.6490000000000001E-3</v>
+        <v>1.671E-3</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="2">
-        <v>1.2260000000000001E-3</v>
+        <v>1.225E-3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>1007</v>
@@ -5500,13 +5576,13 @@
         <v>887</v>
       </c>
       <c r="H27" s="2">
-        <v>1.6490000000000001E-3</v>
+        <v>1.425203</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>767</v>
       </c>
       <c r="J27" s="2">
-        <v>1.527795</v>
+        <v>1.527379</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>647</v>
@@ -5518,7 +5594,7 @@
         <v>527</v>
       </c>
       <c r="N27" s="2">
-        <v>2.3249999999999998E-3</v>
+        <v>2.4350000000000001E-3</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>407</v>
@@ -5538,55 +5614,55 @@
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="2">
-        <v>4.5760000000000002E-3</v>
+        <v>4.7479999999999996E-3</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="2">
-        <v>3.0609999999999999E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>1008</v>
       </c>
       <c r="F28" s="2">
-        <v>3.0360000000000001E-3</v>
+        <v>3.0409999999999999E-3</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>888</v>
       </c>
       <c r="H28" s="2">
-        <v>4.5760000000000002E-3</v>
+        <v>1.2919890000000001</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>768</v>
       </c>
       <c r="J28" s="2">
-        <v>1.454485</v>
+        <v>1.4544349999999999</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>648</v>
       </c>
       <c r="L28" s="2">
-        <v>3.0360000000000001E-3</v>
+        <v>3.0409999999999999E-3</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>528</v>
       </c>
       <c r="N28" s="2">
-        <v>6.9439999999999997E-3</v>
+        <v>6.9969999999999997E-3</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>408</v>
       </c>
       <c r="P28" s="2">
-        <v>3.287E-3</v>
+        <v>3.3639999999999998E-3</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>288</v>
       </c>
       <c r="R28" s="2">
-        <v>3.0360000000000001E-3</v>
+        <v>3.0409999999999999E-3</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>168</v>
@@ -5594,55 +5670,55 @@
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="2">
-        <v>7.7669999999999996E-3</v>
+        <v>8.3219999999999995E-3</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="2">
-        <v>6.1419999999999999E-3</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>1009</v>
       </c>
       <c r="F29" s="2">
-        <v>6.1380000000000002E-3</v>
+        <v>6.1349999999999998E-3</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>889</v>
       </c>
       <c r="H29" s="2">
-        <v>7.7669999999999996E-3</v>
+        <v>1.4869270000000001</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>769</v>
       </c>
       <c r="J29" s="2">
-        <v>2.4968629999999998</v>
+        <v>2.4976470000000002</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>649</v>
       </c>
       <c r="L29" s="2">
-        <v>6.1380000000000002E-3</v>
+        <v>6.1349999999999998E-3</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>529</v>
       </c>
       <c r="N29" s="2">
-        <v>1.1081000000000001E-2</v>
+        <v>1.1653999999999999E-2</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>409</v>
       </c>
       <c r="P29" s="2">
-        <v>6.4060000000000002E-3</v>
+        <v>6.5900000000000004E-3</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>289</v>
       </c>
       <c r="R29" s="2">
-        <v>6.1380000000000002E-3</v>
+        <v>6.1349999999999998E-3</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>169</v>
@@ -5650,55 +5726,55 @@
     </row>
     <row r="30" spans="2:19">
       <c r="B30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="2">
-        <v>4.3999999999999999E-5</v>
+        <v>4.6E-5</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>1010</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>890</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>770</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>650</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>530</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>410</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>290</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>170</v>
@@ -5724,7 +5800,7 @@
         <v>891</v>
       </c>
       <c r="H31" s="6">
-        <v>2.8140000000000001E-3</v>
+        <v>0.23486899999999999</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>771</v>
@@ -5742,7 +5818,7 @@
         <v>531</v>
       </c>
       <c r="N31" s="6">
-        <v>7.7260000000000002E-3</v>
+        <v>7.7270000000000004E-3</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>411</v>
@@ -5768,49 +5844,49 @@
         <v>52</v>
       </c>
       <c r="D32" s="2">
-        <v>9.6699999999999998E-4</v>
+        <v>9.6599999999999995E-4</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>1012</v>
       </c>
       <c r="F32" s="2">
-        <v>2.0709999999999999E-3</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>892</v>
       </c>
       <c r="H32" s="2">
-        <v>2.6700000000000001E-3</v>
+        <v>0.31664900000000001</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>772</v>
       </c>
       <c r="J32" s="2">
-        <v>0.38388600000000001</v>
+        <v>0.38378200000000001</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>652</v>
       </c>
       <c r="L32" s="2">
-        <v>2.0709999999999999E-3</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>532</v>
       </c>
       <c r="N32" s="2">
-        <v>1.6465E-2</v>
+        <v>1.6608999999999999E-2</v>
       </c>
       <c r="O32" s="12" t="s">
         <v>412</v>
       </c>
       <c r="P32" s="2">
-        <v>3.7469999999999999E-3</v>
+        <v>3.7690000000000002E-3</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>292</v>
       </c>
       <c r="R32" s="2">
-        <v>2.0709999999999999E-3</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>172</v>
@@ -5836,7 +5912,7 @@
         <v>893</v>
       </c>
       <c r="H33" s="2">
-        <v>7.62E-3</v>
+        <v>2.10059</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>773</v>
@@ -5892,7 +5968,7 @@
         <v>894</v>
       </c>
       <c r="H34" s="6">
-        <v>6.4530000000000004E-3</v>
+        <v>0.221752</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>774</v>
@@ -5910,7 +5986,7 @@
         <v>534</v>
       </c>
       <c r="N34" s="6">
-        <v>8.6730000000000002E-3</v>
+        <v>8.6870000000000003E-3</v>
       </c>
       <c r="O34" s="11" t="s">
         <v>414</v>
@@ -5930,55 +6006,55 @@
     </row>
     <row r="35" spans="2:19">
       <c r="B35" s="2">
-        <v>1.1313E-2</v>
+        <v>1.2305E-2</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="2">
-        <v>8.5780000000000006E-3</v>
+        <v>8.6899999999999998E-3</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="F35" s="2">
-        <v>8.8929999999999999E-3</v>
+        <v>8.9040000000000005E-3</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>895</v>
       </c>
       <c r="H35" s="2">
-        <v>1.1313E-2</v>
+        <v>0.16561600000000001</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>775</v>
       </c>
       <c r="J35" s="2">
-        <v>0.33690999999999999</v>
+        <v>0.33711999999999998</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>655</v>
       </c>
       <c r="L35" s="2">
-        <v>8.8929999999999999E-3</v>
+        <v>8.9040000000000005E-3</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>535</v>
       </c>
       <c r="N35" s="2">
-        <v>1.6990000000000002E-2</v>
+        <v>1.8373E-2</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>415</v>
       </c>
       <c r="P35" s="2">
-        <v>8.9879999999999995E-3</v>
+        <v>9.2479999999999993E-3</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>295</v>
       </c>
       <c r="R35" s="2">
-        <v>8.8929999999999999E-3</v>
+        <v>8.9040000000000005E-3</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>175</v>
@@ -5986,7 +6062,7 @@
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="2">
-        <v>2.3779999999999999E-3</v>
+        <v>2.3830000000000001E-3</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>56</v>
@@ -6004,13 +6080,13 @@
         <v>896</v>
       </c>
       <c r="H36" s="2">
-        <v>2.3779999999999999E-3</v>
+        <v>0.28614400000000001</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>776</v>
       </c>
       <c r="J36" s="2">
-        <v>0.39927400000000002</v>
+        <v>0.39929100000000001</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>656</v>
@@ -6022,13 +6098,13 @@
         <v>536</v>
       </c>
       <c r="N36" s="2">
-        <v>3.0720000000000001E-3</v>
+        <v>3.1020000000000002E-3</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>416</v>
       </c>
       <c r="P36" s="2">
-        <v>1.9300000000000001E-3</v>
+        <v>1.931E-3</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>296</v>
@@ -6060,13 +6136,13 @@
         <v>897</v>
       </c>
       <c r="H37" s="2">
-        <v>1.07E-4</v>
+        <v>1.2056880000000001</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>777</v>
       </c>
       <c r="J37" s="2">
-        <v>1.2777229999999999</v>
+        <v>1.277725</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>657</v>
@@ -6078,7 +6154,7 @@
         <v>537</v>
       </c>
       <c r="N37" s="2">
-        <v>2.3219999999999998E-3</v>
+        <v>2.3289999999999999E-3</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>417</v>
@@ -6098,7 +6174,7 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="2">
-        <v>1.4480000000000001E-3</v>
+        <v>1.449E-3</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>58</v>
@@ -6110,31 +6186,31 @@
         <v>1018</v>
       </c>
       <c r="F38" s="2">
-        <v>1.201E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>898</v>
       </c>
       <c r="H38" s="2">
-        <v>1.4480000000000001E-3</v>
+        <v>1.7723500000000001</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>778</v>
       </c>
       <c r="J38" s="2">
-        <v>1.7817540000000001</v>
+        <v>1.7817639999999999</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>658</v>
       </c>
       <c r="L38" s="2">
-        <v>1.201E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M38" s="12" t="s">
         <v>538</v>
       </c>
       <c r="N38" s="2">
-        <v>3.4919999999999999E-3</v>
+        <v>3.5460000000000001E-3</v>
       </c>
       <c r="O38" s="12" t="s">
         <v>418</v>
@@ -6172,13 +6248,13 @@
         <v>899</v>
       </c>
       <c r="H39" s="2">
-        <v>8.685E-3</v>
+        <v>0.290356</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>779</v>
       </c>
       <c r="J39" s="2">
-        <v>0.29857600000000001</v>
+        <v>0.29857099999999998</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>659</v>
@@ -6190,13 +6266,13 @@
         <v>539</v>
       </c>
       <c r="N39" s="2">
-        <v>1.5524E-2</v>
+        <v>1.5563E-2</v>
       </c>
       <c r="O39" s="12" t="s">
         <v>419</v>
       </c>
       <c r="P39" s="2">
-        <v>8.3370000000000007E-3</v>
+        <v>8.3389999999999992E-3</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>299</v>
@@ -6210,25 +6286,25 @@
     </row>
     <row r="40" spans="2:19">
       <c r="B40" s="2">
-        <v>1.5935999999999999E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="2">
-        <v>1.4735E-2</v>
+        <v>1.4736000000000001E-2</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>1020</v>
       </c>
       <c r="F40" s="2">
-        <v>1.5485000000000001E-2</v>
+        <v>1.5486E-2</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>900</v>
       </c>
       <c r="H40" s="2">
-        <v>1.5935999999999999E-2</v>
+        <v>0.54003699999999999</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>780</v>
@@ -6240,13 +6316,13 @@
         <v>660</v>
       </c>
       <c r="L40" s="2">
-        <v>1.5485000000000001E-2</v>
+        <v>1.5486E-2</v>
       </c>
       <c r="M40" s="12" t="s">
         <v>540</v>
       </c>
       <c r="N40" s="2">
-        <v>2.2135999999999999E-2</v>
+        <v>2.2145999999999999E-2</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>420</v>
@@ -6258,7 +6334,7 @@
         <v>300</v>
       </c>
       <c r="R40" s="2">
-        <v>1.5485000000000001E-2</v>
+        <v>1.5486E-2</v>
       </c>
       <c r="S40" s="12" t="s">
         <v>180</v>
@@ -6284,7 +6360,7 @@
         <v>901</v>
       </c>
       <c r="H41" s="2">
-        <v>4.0340000000000003E-3</v>
+        <v>0.33383299999999999</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>781</v>
@@ -6340,7 +6416,7 @@
         <v>902</v>
       </c>
       <c r="H42" s="2">
-        <v>6.5719999999999997E-3</v>
+        <v>0.31996999999999998</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>782</v>
@@ -6378,25 +6454,25 @@
     </row>
     <row r="43" spans="2:19">
       <c r="B43" s="2">
-        <v>9.6439999999999998E-3</v>
+        <v>1.0075000000000001E-2</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D43" s="2">
-        <v>4.5900000000000003E-3</v>
+        <v>4.5880000000000001E-3</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>1023</v>
       </c>
       <c r="F43" s="2">
-        <v>4.2529999999999998E-3</v>
+        <v>4.2579999999999996E-3</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>903</v>
       </c>
       <c r="H43" s="2">
-        <v>9.6439999999999998E-3</v>
+        <v>0.80924799999999997</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>783</v>
@@ -6408,25 +6484,25 @@
         <v>663</v>
       </c>
       <c r="L43" s="2">
-        <v>4.2529999999999998E-3</v>
+        <v>4.2579999999999996E-3</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>543</v>
       </c>
       <c r="N43" s="2">
-        <v>1.031E-2</v>
+        <v>1.0723E-2</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>423</v>
       </c>
       <c r="P43" s="2">
-        <v>4.8549999999999999E-3</v>
+        <v>4.8430000000000001E-3</v>
       </c>
       <c r="Q43" s="12" t="s">
         <v>303</v>
       </c>
       <c r="R43" s="2">
-        <v>4.3949999999999996E-3</v>
+        <v>4.3990000000000001E-3</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>183</v>
@@ -6434,7 +6510,7 @@
     </row>
     <row r="44" spans="2:19">
       <c r="B44" s="2">
-        <v>6.2319999999999997E-3</v>
+        <v>6.2659999999999999E-3</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>64</v>
@@ -6452,7 +6528,7 @@
         <v>904</v>
       </c>
       <c r="H44" s="2">
-        <v>6.2319999999999997E-3</v>
+        <v>0.63398500000000002</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>784</v>
@@ -6470,7 +6546,7 @@
         <v>544</v>
       </c>
       <c r="N44" s="2">
-        <v>7.1349999999999998E-3</v>
+        <v>7.1919999999999996E-3</v>
       </c>
       <c r="O44" s="12" t="s">
         <v>424</v>
@@ -6490,7 +6566,7 @@
     </row>
     <row r="45" spans="2:19">
       <c r="B45" s="2">
-        <v>1.5199000000000001E-2</v>
+        <v>1.5481999999999999E-2</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>65</v>
@@ -6502,13 +6578,13 @@
         <v>1025</v>
       </c>
       <c r="F45" s="2">
-        <v>5.4749999999999998E-3</v>
+        <v>5.483E-3</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>905</v>
       </c>
       <c r="H45" s="2">
-        <v>1.5199000000000001E-2</v>
+        <v>0.69923500000000005</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>785</v>
@@ -6520,25 +6596,25 @@
         <v>665</v>
       </c>
       <c r="L45" s="2">
-        <v>5.4749999999999998E-3</v>
+        <v>5.483E-3</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>545</v>
       </c>
       <c r="N45" s="2">
-        <v>1.8588E-2</v>
+        <v>1.8818000000000001E-2</v>
       </c>
       <c r="O45" s="12" t="s">
         <v>425</v>
       </c>
       <c r="P45" s="2">
-        <v>6.4209999999999996E-3</v>
+        <v>6.4260000000000003E-3</v>
       </c>
       <c r="Q45" s="12" t="s">
         <v>305</v>
       </c>
       <c r="R45" s="2">
-        <v>5.5859999999999998E-3</v>
+        <v>5.594E-3</v>
       </c>
       <c r="S45" s="12" t="s">
         <v>185</v>
@@ -6546,7 +6622,7 @@
     </row>
     <row r="46" spans="2:19">
       <c r="B46" s="2">
-        <v>3.1821000000000002E-2</v>
+        <v>3.1942999999999999E-2</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>66</v>
@@ -6564,7 +6640,7 @@
         <v>906</v>
       </c>
       <c r="H46" s="2">
-        <v>3.1821000000000002E-2</v>
+        <v>0.30510700000000002</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>786</v>
@@ -6582,7 +6658,7 @@
         <v>546</v>
       </c>
       <c r="N46" s="2">
-        <v>3.9635999999999998E-2</v>
+        <v>3.9760999999999998E-2</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>426</v>
@@ -6602,7 +6678,7 @@
     </row>
     <row r="47" spans="2:19">
       <c r="B47" s="2">
-        <v>2.5638999999999999E-2</v>
+        <v>2.5989999999999999E-2</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>67</v>
@@ -6620,7 +6696,7 @@
         <v>907</v>
       </c>
       <c r="H47" s="2">
-        <v>2.5638999999999999E-2</v>
+        <v>0.24209</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>787</v>
@@ -6638,7 +6714,7 @@
         <v>547</v>
       </c>
       <c r="N47" s="2">
-        <v>2.8329E-2</v>
+        <v>2.8666000000000001E-2</v>
       </c>
       <c r="O47" s="12" t="s">
         <v>427</v>
@@ -6676,7 +6752,7 @@
         <v>908</v>
       </c>
       <c r="H48" s="6">
-        <v>6.3699999999999998E-3</v>
+        <v>0.29901</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>788</v>
@@ -6714,7 +6790,7 @@
     </row>
     <row r="49" spans="2:19">
       <c r="B49" s="6">
-        <v>4.6066000000000003E-2</v>
+        <v>4.8152E-2</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>69</v>
@@ -6726,37 +6802,37 @@
         <v>1029</v>
       </c>
       <c r="F49" s="6">
-        <v>5.3759999999999997E-3</v>
+        <v>5.3749999999999996E-3</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>909</v>
       </c>
       <c r="H49" s="6">
-        <v>4.6066000000000003E-2</v>
+        <v>1.6722919999999999</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>789</v>
       </c>
       <c r="J49" s="6">
-        <v>1.9008590000000001</v>
+        <v>1.9037539999999999</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>669</v>
       </c>
       <c r="L49" s="6">
-        <v>5.3759999999999997E-3</v>
+        <v>5.3749999999999996E-3</v>
       </c>
       <c r="M49" s="11" t="s">
         <v>549</v>
       </c>
       <c r="N49" s="6">
-        <v>7.1221999999999994E-2</v>
+        <v>7.4098999999999998E-2</v>
       </c>
       <c r="O49" s="11" t="s">
         <v>429</v>
       </c>
       <c r="P49" s="6">
-        <v>7.2430000000000003E-3</v>
+        <v>7.2740000000000001E-3</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>309</v>
@@ -6770,55 +6846,55 @@
     </row>
     <row r="50" spans="2:19">
       <c r="B50" s="6">
-        <v>1.2026999999999999E-2</v>
+        <v>1.2527999999999999E-2</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="6">
-        <v>8.8889999999999993E-3</v>
+        <v>8.9289999999999994E-3</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>1030</v>
       </c>
       <c r="F50" s="6">
-        <v>8.9789999999999991E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>910</v>
       </c>
       <c r="H50" s="6">
-        <v>1.2026999999999999E-2</v>
+        <v>1.8738790000000001</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>790</v>
       </c>
       <c r="J50" s="6">
-        <v>1.9188000000000001</v>
+        <v>1.918609</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>670</v>
       </c>
       <c r="L50" s="6">
-        <v>8.9789999999999991E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>550</v>
       </c>
       <c r="N50" s="6">
-        <v>1.7489000000000001E-2</v>
+        <v>1.7946E-2</v>
       </c>
       <c r="O50" s="11" t="s">
         <v>430</v>
       </c>
       <c r="P50" s="6">
-        <v>9.0690000000000007E-3</v>
+        <v>9.2770000000000005E-3</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>310</v>
       </c>
       <c r="R50" s="6">
-        <v>8.9789999999999991E-3</v>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>190</v>
@@ -6826,13 +6902,13 @@
     </row>
     <row r="51" spans="2:19">
       <c r="B51" s="6">
-        <v>5.9740000000000001E-3</v>
+        <v>6.1149999999999998E-3</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="6">
-        <v>3.9370000000000004E-3</v>
+        <v>3.9389999999999998E-3</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>1031</v>
@@ -6844,13 +6920,13 @@
         <v>911</v>
       </c>
       <c r="H51" s="6">
-        <v>5.9740000000000001E-3</v>
+        <v>1.8061990000000001</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>791</v>
       </c>
       <c r="J51" s="6">
-        <v>2.490218</v>
+        <v>2.4911029999999998</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>671</v>
@@ -6862,13 +6938,13 @@
         <v>551</v>
       </c>
       <c r="N51" s="6">
-        <v>8.9519999999999999E-3</v>
+        <v>9.2929999999999992E-3</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>431</v>
       </c>
       <c r="P51" s="6">
-        <v>4.1409999999999997E-3</v>
+        <v>4.1419999999999998E-3</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>311</v>
@@ -6882,7 +6958,7 @@
     </row>
     <row r="52" spans="2:19">
       <c r="B52" s="6">
-        <v>1.2936E-2</v>
+        <v>1.3037E-2</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>72</v>
@@ -6894,13 +6970,13 @@
         <v>1032</v>
       </c>
       <c r="F52" s="6">
-        <v>4.6129999999999999E-3</v>
+        <v>4.6119999999999998E-3</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>912</v>
       </c>
       <c r="H52" s="6">
-        <v>1.2936E-2</v>
+        <v>0.71931500000000004</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>792</v>
@@ -6912,13 +6988,13 @@
         <v>672</v>
       </c>
       <c r="L52" s="6">
-        <v>4.6129999999999999E-3</v>
+        <v>4.6119999999999998E-3</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>552</v>
       </c>
       <c r="N52" s="6">
-        <v>1.3997000000000001E-2</v>
+        <v>1.4115000000000001E-2</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>432</v>
@@ -6938,7 +7014,7 @@
     </row>
     <row r="53" spans="2:19">
       <c r="B53" s="6">
-        <v>1.7118000000000001E-2</v>
+        <v>1.7402999999999998E-2</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>73</v>
@@ -6956,7 +7032,7 @@
         <v>913</v>
       </c>
       <c r="H53" s="6">
-        <v>1.7118000000000001E-2</v>
+        <v>0.62484799999999996</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>793</v>
@@ -6974,7 +7050,7 @@
         <v>553</v>
       </c>
       <c r="N53" s="6">
-        <v>1.9609999999999999E-2</v>
+        <v>1.9956999999999999E-2</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>433</v>
@@ -6994,7 +7070,7 @@
     </row>
     <row r="54" spans="2:19">
       <c r="B54" s="6">
-        <v>1.8942000000000001E-2</v>
+        <v>1.9053E-2</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>74</v>
@@ -7006,13 +7082,13 @@
         <v>1034</v>
       </c>
       <c r="F54" s="6">
-        <v>4.2430000000000002E-3</v>
+        <v>4.2459999999999998E-3</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>914</v>
       </c>
       <c r="H54" s="6">
-        <v>1.8942000000000001E-2</v>
+        <v>0.54274699999999998</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>794</v>
@@ -7024,13 +7100,13 @@
         <v>674</v>
       </c>
       <c r="L54" s="6">
-        <v>4.2430000000000002E-3</v>
+        <v>4.2459999999999998E-3</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>554</v>
       </c>
       <c r="N54" s="6">
-        <v>2.3177E-2</v>
+        <v>2.3321999999999999E-2</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>434</v>
@@ -7042,7 +7118,7 @@
         <v>314</v>
       </c>
       <c r="R54" s="6">
-        <v>4.5459999999999997E-3</v>
+        <v>4.548E-3</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>194</v>
@@ -7050,25 +7126,25 @@
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="6">
-        <v>6.3477000000000006E-2</v>
+        <v>6.5401000000000001E-2</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D55" s="6">
-        <v>6.9540000000000001E-3</v>
+        <v>6.953E-3</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>1035</v>
       </c>
       <c r="F55" s="6">
-        <v>6.1250000000000002E-3</v>
+        <v>6.1850000000000004E-3</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>915</v>
       </c>
       <c r="H55" s="6">
-        <v>6.3477000000000006E-2</v>
+        <v>0.24307100000000001</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>795</v>
@@ -7080,25 +7156,25 @@
         <v>675</v>
       </c>
       <c r="L55" s="6">
-        <v>6.1250000000000002E-3</v>
+        <v>6.1850000000000004E-3</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>555</v>
       </c>
       <c r="N55" s="6">
-        <v>6.6907999999999995E-2</v>
+        <v>6.8891999999999995E-2</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>435</v>
       </c>
       <c r="P55" s="6">
-        <v>8.4639999999999993E-3</v>
+        <v>8.5249999999999996E-3</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>315</v>
       </c>
       <c r="R55" s="6">
-        <v>6.4739999999999997E-3</v>
+        <v>6.5259999999999997E-3</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>195</v>
@@ -7106,7 +7182,7 @@
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="6">
-        <v>2.6880000000000001E-2</v>
+        <v>2.7973999999999999E-2</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>76</v>
@@ -7124,7 +7200,7 @@
         <v>916</v>
       </c>
       <c r="H56" s="6">
-        <v>2.6880000000000001E-2</v>
+        <v>0.44871499999999997</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>796</v>
@@ -7142,13 +7218,13 @@
         <v>556</v>
       </c>
       <c r="N56" s="6">
-        <v>3.0962E-2</v>
+        <v>3.2222000000000001E-2</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>436</v>
       </c>
       <c r="P56" s="6">
-        <v>7.0390000000000001E-3</v>
+        <v>7.0489999999999997E-3</v>
       </c>
       <c r="Q56" s="11" t="s">
         <v>316</v>
@@ -7162,7 +7238,7 @@
     </row>
     <row r="57" spans="2:19">
       <c r="B57" s="6">
-        <v>3.3475999999999999E-2</v>
+        <v>3.3611000000000002E-2</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>77</v>
@@ -7180,7 +7256,7 @@
         <v>917</v>
       </c>
       <c r="H57" s="6">
-        <v>3.3475999999999999E-2</v>
+        <v>0.42308299999999999</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>797</v>
@@ -7198,7 +7274,7 @@
         <v>557</v>
       </c>
       <c r="N57" s="6">
-        <v>3.8056E-2</v>
+        <v>3.8170000000000003E-2</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>437</v>
@@ -7218,7 +7294,7 @@
     </row>
     <row r="58" spans="2:19">
       <c r="B58" s="6">
-        <v>0.175124</v>
+        <v>0.19147500000000001</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>78</v>
@@ -7230,37 +7306,37 @@
         <v>1038</v>
       </c>
       <c r="F58" s="6">
-        <v>6.0359999999999997E-3</v>
+        <v>6.0369999999999998E-3</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>918</v>
       </c>
       <c r="H58" s="6">
-        <v>0.175124</v>
+        <v>0.78871199999999997</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>798</v>
       </c>
       <c r="J58" s="6">
-        <v>0.89719400000000005</v>
+        <v>0.89701799999999998</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>678</v>
       </c>
       <c r="L58" s="6">
-        <v>6.0359999999999997E-3</v>
+        <v>6.0369999999999998E-3</v>
       </c>
       <c r="M58" s="11" t="s">
         <v>558</v>
       </c>
       <c r="N58" s="6">
-        <v>0.198769</v>
+        <v>0.214612</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>438</v>
       </c>
       <c r="P58" s="6">
-        <v>2.5486999999999999E-2</v>
+        <v>2.5912000000000001E-2</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>318</v>
@@ -7274,13 +7350,13 @@
     </row>
     <row r="59" spans="2:19">
       <c r="B59" s="6">
-        <v>1.5351E-2</v>
+        <v>1.8744E-2</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D59" s="6">
-        <v>5.04E-4</v>
+        <v>5.0500000000000002E-4</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>1039</v>
@@ -7292,13 +7368,13 @@
         <v>919</v>
       </c>
       <c r="H59" s="6">
-        <v>1.5351E-2</v>
+        <v>1.6805049999999999</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>799</v>
       </c>
       <c r="J59" s="6">
-        <v>2.1907670000000001</v>
+        <v>2.1903260000000002</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>679</v>
@@ -7310,13 +7386,13 @@
         <v>559</v>
       </c>
       <c r="N59" s="6">
-        <v>1.6375000000000001E-2</v>
+        <v>1.9751999999999999E-2</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>439</v>
       </c>
       <c r="P59" s="6">
-        <v>9.3400000000000004E-4</v>
+        <v>9.4700000000000003E-4</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>319</v>
@@ -7330,55 +7406,55 @@
     </row>
     <row r="60" spans="2:19">
       <c r="B60" s="6">
-        <v>2.4249E-2</v>
+        <v>2.6412999999999999E-2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D60" s="6">
-        <v>1.016E-3</v>
+        <v>1.0269999999999999E-3</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>1040</v>
       </c>
       <c r="F60" s="6">
-        <v>1.549E-3</v>
+        <v>1.5510000000000001E-3</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>920</v>
       </c>
       <c r="H60" s="6">
-        <v>2.4249E-2</v>
+        <v>1.5664210000000001</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>800</v>
       </c>
       <c r="J60" s="6">
-        <v>1.838687</v>
+        <v>1.8379589999999999</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>680</v>
       </c>
       <c r="L60" s="6">
-        <v>1.549E-3</v>
+        <v>1.5510000000000001E-3</v>
       </c>
       <c r="M60" s="11" t="s">
         <v>560</v>
       </c>
       <c r="N60" s="6">
-        <v>2.8846E-2</v>
+        <v>3.0914000000000001E-2</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>440</v>
       </c>
       <c r="P60" s="6">
-        <v>1.815E-3</v>
+        <v>1.9469999999999999E-3</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>320</v>
       </c>
       <c r="R60" s="6">
-        <v>1.9380000000000001E-3</v>
+        <v>1.941E-3</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>200</v>
@@ -7386,7 +7462,7 @@
     </row>
     <row r="61" spans="2:19">
       <c r="B61" s="6">
-        <v>1.0094000000000001E-2</v>
+        <v>1.1926000000000001E-2</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>81</v>
@@ -7398,43 +7474,43 @@
         <v>1041</v>
       </c>
       <c r="F61" s="6">
-        <v>9.2900000000000003E-4</v>
+        <v>1.049E-3</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>921</v>
       </c>
       <c r="H61" s="6">
-        <v>1.0094000000000001E-2</v>
+        <v>0.216164</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>801</v>
       </c>
       <c r="J61" s="6">
-        <v>1.1946730000000001</v>
+        <v>1.2005969999999999</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>681</v>
       </c>
       <c r="L61" s="6">
-        <v>9.2900000000000003E-4</v>
+        <v>1.049E-3</v>
       </c>
       <c r="M61" s="11" t="s">
         <v>561</v>
       </c>
       <c r="N61" s="6">
-        <v>1.1417999999999999E-2</v>
+        <v>1.3272000000000001E-2</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>441</v>
       </c>
       <c r="P61" s="6">
-        <v>1.2310000000000001E-3</v>
+        <v>1.3259999999999999E-3</v>
       </c>
       <c r="Q61" s="11" t="s">
         <v>321</v>
       </c>
       <c r="R61" s="6">
-        <v>1.042E-3</v>
+        <v>1.1230000000000001E-3</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>201</v>
@@ -7442,13 +7518,13 @@
     </row>
     <row r="62" spans="2:19">
       <c r="B62" s="6">
-        <v>1.7399999999999999E-2</v>
+        <v>2.2877999999999999E-2</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D62" s="6">
-        <v>2.238E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>1042</v>
@@ -7460,13 +7536,13 @@
         <v>922</v>
       </c>
       <c r="H62" s="6">
-        <v>1.7399999999999999E-2</v>
+        <v>0.99820500000000001</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>802</v>
       </c>
       <c r="J62" s="6">
-        <v>1.0576920000000001</v>
+        <v>1.05775</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>682</v>
@@ -7478,13 +7554,13 @@
         <v>562</v>
       </c>
       <c r="N62" s="6">
-        <v>2.0885000000000001E-2</v>
+        <v>2.6856000000000001E-2</v>
       </c>
       <c r="O62" s="11" t="s">
         <v>442</v>
       </c>
       <c r="P62" s="6">
-        <v>2.738E-3</v>
+        <v>2.7750000000000001E-3</v>
       </c>
       <c r="Q62" s="11" t="s">
         <v>322</v>
@@ -7498,7 +7574,7 @@
     </row>
     <row r="63" spans="2:19">
       <c r="B63" s="6">
-        <v>4.6001E-2</v>
+        <v>4.9943000000000001E-2</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>83</v>
@@ -7510,43 +7586,43 @@
         <v>1043</v>
       </c>
       <c r="F63" s="6">
-        <v>3.712E-3</v>
+        <v>3.797E-3</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>923</v>
       </c>
       <c r="H63" s="6">
-        <v>4.6001E-2</v>
+        <v>0.44880300000000001</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>803</v>
       </c>
       <c r="J63" s="6">
-        <v>2.0883829999999999</v>
+        <v>2.0873409999999999</v>
       </c>
       <c r="K63" s="11" t="s">
         <v>683</v>
       </c>
       <c r="L63" s="6">
-        <v>3.712E-3</v>
+        <v>3.797E-3</v>
       </c>
       <c r="M63" s="11" t="s">
         <v>563</v>
       </c>
       <c r="N63" s="6">
-        <v>4.8155000000000003E-2</v>
+        <v>5.2352999999999997E-2</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>443</v>
       </c>
       <c r="P63" s="6">
-        <v>4.6889999999999996E-3</v>
+        <v>4.7299999999999998E-3</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>323</v>
       </c>
       <c r="R63" s="6">
-        <v>4.0239999999999998E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>203</v>
@@ -7554,7 +7630,7 @@
     </row>
     <row r="64" spans="2:19">
       <c r="B64" s="6">
-        <v>1.9890000000000001E-2</v>
+        <v>2.0806999999999999E-2</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>84</v>
@@ -7572,13 +7648,13 @@
         <v>924</v>
       </c>
       <c r="H64" s="6">
-        <v>1.9890000000000001E-2</v>
+        <v>0.24529999999999999</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>804</v>
       </c>
       <c r="J64" s="6">
-        <v>0.48206399999999999</v>
+        <v>0.48206599999999999</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>684</v>
@@ -7590,19 +7666,19 @@
         <v>564</v>
       </c>
       <c r="N64" s="6">
-        <v>2.6522E-2</v>
+        <v>2.7611E-2</v>
       </c>
       <c r="O64" s="11" t="s">
         <v>444</v>
       </c>
       <c r="P64" s="6">
-        <v>2.6180000000000001E-3</v>
+        <v>2.6229999999999999E-3</v>
       </c>
       <c r="Q64" s="11" t="s">
         <v>324</v>
       </c>
       <c r="R64" s="6">
-        <v>2.545E-3</v>
+        <v>2.5490000000000001E-3</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>204</v>
@@ -7610,55 +7686,55 @@
     </row>
     <row r="65" spans="2:19">
       <c r="B65" s="6">
-        <v>6.0949999999999997E-3</v>
+        <v>6.2220000000000001E-3</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D65" s="6">
-        <v>5.31E-4</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>1045</v>
       </c>
       <c r="F65" s="6">
-        <v>5.2800000000000004E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>925</v>
       </c>
       <c r="H65" s="6">
-        <v>6.0949999999999997E-3</v>
+        <v>0.118255</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>805</v>
       </c>
       <c r="J65" s="6">
-        <v>0.32417499999999999</v>
+        <v>0.32424500000000001</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>685</v>
       </c>
       <c r="L65" s="6">
-        <v>5.2800000000000004E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="M65" s="11" t="s">
         <v>565</v>
       </c>
       <c r="N65" s="6">
-        <v>7.1789999999999996E-3</v>
+        <v>7.2360000000000002E-3</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>445</v>
       </c>
       <c r="P65" s="6">
-        <v>6.1799999999999995E-4</v>
+        <v>6.96E-4</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>325</v>
       </c>
       <c r="R65" s="6">
-        <v>7.8700000000000005E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>205</v>
@@ -7666,55 +7742,55 @@
     </row>
     <row r="66" spans="2:19">
       <c r="B66" s="6">
-        <v>1.7291000000000001E-2</v>
+        <v>1.9931999999999998E-2</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D66" s="6">
-        <v>4.1510000000000002E-3</v>
+        <v>4.1939999999999998E-3</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>1046</v>
       </c>
       <c r="F66" s="6">
-        <v>4.2360000000000002E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>926</v>
       </c>
       <c r="H66" s="6">
-        <v>1.7291000000000001E-2</v>
+        <v>0.19034899999999999</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>806</v>
       </c>
       <c r="J66" s="6">
-        <v>0.48180600000000001</v>
+        <v>0.48189599999999999</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>686</v>
       </c>
       <c r="L66" s="6">
-        <v>4.2360000000000002E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>566</v>
       </c>
       <c r="N66" s="6">
-        <v>2.9010000000000001E-2</v>
+        <v>3.1175999999999999E-2</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>446</v>
       </c>
       <c r="P66" s="6">
-        <v>4.9959999999999996E-3</v>
+        <v>5.6140000000000001E-3</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>326</v>
       </c>
       <c r="R66" s="6">
-        <v>4.9069999999999999E-3</v>
+        <v>5.437E-3</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>206</v>
@@ -7722,13 +7798,13 @@
     </row>
     <row r="67" spans="2:19">
       <c r="B67" s="6">
-        <v>5.4749999999999998E-3</v>
+        <v>6.2639999999999996E-3</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D67" s="6">
-        <v>7.4399999999999998E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>1047</v>
@@ -7740,13 +7816,13 @@
         <v>927</v>
       </c>
       <c r="H67" s="6">
-        <v>5.4749999999999998E-3</v>
+        <v>1.9309460000000001</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>807</v>
       </c>
       <c r="J67" s="6">
-        <v>2.2717149999999999</v>
+        <v>2.2623760000000002</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>687</v>
@@ -7758,19 +7834,19 @@
         <v>567</v>
       </c>
       <c r="N67" s="6">
-        <v>6.672E-3</v>
+        <v>7.9880000000000003E-3</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>447</v>
       </c>
       <c r="P67" s="6">
-        <v>8.3699999999999996E-4</v>
+        <v>8.4400000000000002E-4</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>327</v>
       </c>
       <c r="R67" s="6">
-        <v>1.0640000000000001E-3</v>
+        <v>1.0629999999999999E-3</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>207</v>
@@ -7778,7 +7854,7 @@
     </row>
     <row r="68" spans="2:19">
       <c r="B68" s="6">
-        <v>1.1166000000000001E-2</v>
+        <v>1.2338999999999999E-2</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>88</v>
@@ -7796,13 +7872,13 @@
         <v>928</v>
       </c>
       <c r="H68" s="6">
-        <v>1.1166000000000001E-2</v>
+        <v>2.1649530000000001</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>808</v>
       </c>
       <c r="J68" s="6">
-        <v>2.6356670000000002</v>
+        <v>2.6346599999999998</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>688</v>
@@ -7814,13 +7890,13 @@
         <v>568</v>
       </c>
       <c r="N68" s="6">
-        <v>1.5480000000000001E-2</v>
+        <v>1.5741000000000002E-2</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>448</v>
       </c>
       <c r="P68" s="6">
-        <v>1.5460000000000001E-3</v>
+        <v>1.5529999999999999E-3</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>328</v>
@@ -7834,55 +7910,55 @@
     </row>
     <row r="69" spans="2:19">
       <c r="B69" s="6">
-        <v>2.6311000000000001E-2</v>
+        <v>3.0793999999999998E-2</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="6">
-        <v>1.8779999999999999E-3</v>
+        <v>1.879E-3</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>1049</v>
       </c>
       <c r="F69" s="6">
-        <v>2.5469999999999998E-3</v>
+        <v>2.5439999999999998E-3</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>929</v>
       </c>
       <c r="H69" s="6">
-        <v>2.6311000000000001E-2</v>
+        <v>2.485487</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>809</v>
       </c>
       <c r="J69" s="6">
-        <v>2.6997279999999999</v>
+        <v>2.6913900000000002</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>689</v>
       </c>
       <c r="L69" s="6">
-        <v>2.5469999999999998E-3</v>
+        <v>2.5439999999999998E-3</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>569</v>
       </c>
       <c r="N69" s="6">
-        <v>3.1766000000000003E-2</v>
+        <v>3.5223999999999998E-2</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>449</v>
       </c>
       <c r="P69" s="6">
-        <v>2.6289999999999998E-3</v>
+        <v>2.6689999999999999E-3</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>329</v>
       </c>
       <c r="R69" s="6">
-        <v>3.2460000000000002E-3</v>
+        <v>3.2429999999999998E-3</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>209</v>
@@ -7890,13 +7966,13 @@
     </row>
     <row r="70" spans="2:19">
       <c r="B70" s="6">
-        <v>4.5009999999999998E-3</v>
+        <v>4.9579999999999997E-3</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D70" s="6">
-        <v>1.4729999999999999E-3</v>
+        <v>1.513E-3</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1050</v>
@@ -7908,13 +7984,13 @@
         <v>930</v>
       </c>
       <c r="H70" s="6">
-        <v>4.5009999999999998E-3</v>
+        <v>2.7806410000000001</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>810</v>
       </c>
       <c r="J70" s="6">
-        <v>6.429964</v>
+        <v>6.4319480000000002</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>690</v>
@@ -7926,19 +8002,19 @@
         <v>570</v>
       </c>
       <c r="N70" s="6">
-        <v>9.7350000000000006E-3</v>
+        <v>1.0248E-2</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>450</v>
       </c>
       <c r="P70" s="6">
-        <v>1.5280000000000001E-3</v>
+        <v>1.611E-3</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>330</v>
       </c>
       <c r="R70" s="6">
-        <v>2.2390000000000001E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>210</v>
@@ -7946,55 +8022,55 @@
     </row>
     <row r="71" spans="2:19">
       <c r="B71" s="6">
-        <v>1.7299999999999999E-2</v>
+        <v>2.1627E-2</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D71" s="6">
-        <v>5.829E-3</v>
+        <v>5.8650000000000004E-3</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>1051</v>
       </c>
       <c r="F71" s="6">
-        <v>5.7860000000000003E-3</v>
+        <v>6.5310000000000003E-3</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>931</v>
       </c>
       <c r="H71" s="6">
-        <v>1.7299999999999999E-2</v>
+        <v>0.35137299999999999</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>811</v>
       </c>
       <c r="J71" s="6">
-        <v>0.47663899999999998</v>
+        <v>0.47659200000000002</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>691</v>
       </c>
       <c r="L71" s="6">
-        <v>5.7860000000000003E-3</v>
+        <v>6.5310000000000003E-3</v>
       </c>
       <c r="M71" s="11" t="s">
         <v>571</v>
       </c>
       <c r="N71" s="6">
-        <v>2.2429000000000001E-2</v>
+        <v>2.7182000000000001E-2</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>451</v>
       </c>
       <c r="P71" s="6">
-        <v>6.7489999999999998E-3</v>
+        <v>7.3660000000000002E-3</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>331</v>
       </c>
       <c r="R71" s="6">
-        <v>5.9849999999999999E-3</v>
+        <v>6.7029999999999998E-3</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>211</v>
@@ -8002,55 +8078,55 @@
     </row>
     <row r="72" spans="2:19">
       <c r="B72" s="6">
-        <v>4.5615999999999997E-2</v>
+        <v>4.9896000000000003E-2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D72" s="6">
-        <v>1.4404999999999999E-2</v>
+        <v>1.4533000000000001E-2</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>1052</v>
       </c>
       <c r="F72" s="6">
-        <v>1.4755000000000001E-2</v>
+        <v>1.5649E-2</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>932</v>
       </c>
       <c r="H72" s="6">
-        <v>4.5615999999999997E-2</v>
+        <v>0.359682</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>812</v>
       </c>
       <c r="J72" s="6">
-        <v>0.60059499999999999</v>
+        <v>0.59795500000000001</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>692</v>
       </c>
       <c r="L72" s="6">
-        <v>1.4755000000000001E-2</v>
+        <v>1.5649E-2</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>572</v>
       </c>
       <c r="N72" s="6">
-        <v>8.7087999999999999E-2</v>
+        <v>9.0819999999999998E-2</v>
       </c>
       <c r="O72" s="11" t="s">
         <v>452</v>
       </c>
       <c r="P72" s="6">
-        <v>1.7201999999999999E-2</v>
+        <v>1.8173999999999999E-2</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>332</v>
       </c>
       <c r="R72" s="6">
-        <v>1.4755000000000001E-2</v>
+        <v>1.5649E-2</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>212</v>
@@ -8076,7 +8152,7 @@
         <v>933</v>
       </c>
       <c r="H73" s="6">
-        <v>1.2009000000000001E-2</v>
+        <v>2.1105260000000001</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>813</v>
@@ -8114,55 +8190,55 @@
     </row>
     <row r="74" spans="2:19">
       <c r="B74" s="6">
-        <v>3.5520000000000003E-2</v>
+        <v>4.7736000000000001E-2</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="6">
-        <v>3.4459999999999998E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>1054</v>
       </c>
       <c r="F74" s="6">
-        <v>5.025E-3</v>
+        <v>4.9750000000000003E-3</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>934</v>
       </c>
       <c r="H74" s="6">
-        <v>3.5520000000000003E-2</v>
+        <v>0.27242300000000003</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>814</v>
       </c>
       <c r="J74" s="6">
-        <v>0.49090600000000001</v>
+        <v>0.49097000000000002</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>694</v>
       </c>
       <c r="L74" s="6">
-        <v>5.025E-3</v>
+        <v>4.9750000000000003E-3</v>
       </c>
       <c r="M74" s="11" t="s">
         <v>574</v>
       </c>
       <c r="N74" s="6">
-        <v>3.8392999999999997E-2</v>
+        <v>5.1069000000000003E-2</v>
       </c>
       <c r="O74" s="11" t="s">
         <v>454</v>
       </c>
       <c r="P74" s="6">
-        <v>5.6709999999999998E-3</v>
+        <v>7.1910000000000003E-3</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>334</v>
       </c>
       <c r="R74" s="6">
-        <v>5.2909999999999997E-3</v>
+        <v>5.2389999999999997E-3</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>214</v>
@@ -8170,55 +8246,55 @@
     </row>
     <row r="75" spans="2:19">
       <c r="B75" s="6">
-        <v>6.4835000000000004E-2</v>
+        <v>7.6616000000000004E-2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D75" s="6">
-        <v>2.1700000000000001E-3</v>
+        <v>2.2330000000000002E-3</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>1055</v>
       </c>
       <c r="F75" s="6">
-        <v>3.5860000000000002E-3</v>
+        <v>3.5599999999999998E-3</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>935</v>
       </c>
       <c r="H75" s="6">
-        <v>6.4835000000000004E-2</v>
+        <v>0.22412199999999999</v>
       </c>
       <c r="I75" s="11" t="s">
         <v>815</v>
       </c>
       <c r="J75" s="6">
-        <v>0.49004300000000001</v>
+        <v>0.49021799999999999</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>695</v>
       </c>
       <c r="L75" s="6">
-        <v>3.5860000000000002E-3</v>
+        <v>3.5599999999999998E-3</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>575</v>
       </c>
       <c r="N75" s="6">
-        <v>7.2547E-2</v>
+        <v>8.3150000000000002E-2</v>
       </c>
       <c r="O75" s="11" t="s">
         <v>455</v>
       </c>
       <c r="P75" s="6">
-        <v>4.2059999999999997E-3</v>
+        <v>7.1110000000000001E-3</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>335</v>
       </c>
       <c r="R75" s="6">
-        <v>4.2880000000000001E-3</v>
+        <v>4.2700000000000004E-3</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>215</v>
@@ -8226,55 +8302,55 @@
     </row>
     <row r="76" spans="2:19">
       <c r="B76" s="6">
-        <v>7.3270000000000002E-3</v>
+        <v>8.4930000000000005E-3</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D76" s="6">
-        <v>8.4900000000000004E-4</v>
+        <v>8.5300000000000003E-4</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="F76" s="6">
-        <v>1.1130000000000001E-3</v>
+        <v>1.108E-3</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>936</v>
       </c>
       <c r="H76" s="6">
-        <v>7.3270000000000002E-3</v>
+        <v>0.44356200000000001</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>816</v>
       </c>
       <c r="J76" s="6">
-        <v>0.70295700000000005</v>
+        <v>0.70316500000000004</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>696</v>
       </c>
       <c r="L76" s="6">
-        <v>1.1130000000000001E-3</v>
+        <v>1.108E-3</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>576</v>
       </c>
       <c r="N76" s="6">
-        <v>8.6160000000000004E-3</v>
+        <v>9.7850000000000003E-3</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>456</v>
       </c>
       <c r="P76" s="6">
-        <v>7.4600000000000003E-4</v>
+        <v>9.859999999999999E-4</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>336</v>
       </c>
       <c r="R76" s="6">
-        <v>1.222E-3</v>
+        <v>1.2160000000000001E-3</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>216</v>
@@ -8282,55 +8358,55 @@
     </row>
     <row r="77" spans="2:19">
       <c r="B77" s="6">
-        <v>4.0660000000000002E-3</v>
+        <v>4.3489999999999996E-3</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D77" s="6">
-        <v>1.1299999999999999E-3</v>
+        <v>1.1529999999999999E-3</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>1057</v>
       </c>
       <c r="F77" s="6">
-        <v>1.294E-3</v>
+        <v>1.2819999999999999E-3</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>937</v>
       </c>
       <c r="H77" s="6">
-        <v>4.0660000000000002E-3</v>
+        <v>1.9369989999999999</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>817</v>
       </c>
       <c r="J77" s="6">
-        <v>1.965327</v>
+        <v>1.965354</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>697</v>
       </c>
       <c r="L77" s="6">
-        <v>1.294E-3</v>
+        <v>1.2819999999999999E-3</v>
       </c>
       <c r="M77" s="11" t="s">
         <v>577</v>
       </c>
       <c r="N77" s="6">
-        <v>5.4900000000000001E-3</v>
+        <v>5.7109999999999999E-3</v>
       </c>
       <c r="O77" s="11" t="s">
         <v>457</v>
       </c>
       <c r="P77" s="6">
-        <v>1.1800000000000001E-3</v>
+        <v>1.261E-3</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>337</v>
       </c>
       <c r="R77" s="6">
-        <v>1.4250000000000001E-3</v>
+        <v>1.4170000000000001E-3</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>217</v>
@@ -8338,13 +8414,13 @@
     </row>
     <row r="78" spans="2:19">
       <c r="B78" s="6">
-        <v>2.6350000000000002E-3</v>
+        <v>2.9399999999999999E-3</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="6">
-        <v>4.0499999999999998E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>1058</v>
@@ -8356,13 +8432,13 @@
         <v>938</v>
       </c>
       <c r="H78" s="6">
-        <v>2.6350000000000002E-3</v>
+        <v>1.799787</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>818</v>
       </c>
       <c r="J78" s="6">
-        <v>1.807507</v>
+        <v>1.8068219999999999</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>698</v>
@@ -8374,13 +8450,13 @@
         <v>578</v>
       </c>
       <c r="N78" s="6">
-        <v>3.6700000000000001E-3</v>
+        <v>4.1920000000000004E-3</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>458</v>
       </c>
       <c r="P78" s="6">
-        <v>4.6999999999999999E-4</v>
+        <v>4.7100000000000001E-4</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>338</v>
@@ -8394,7 +8470,7 @@
     </row>
     <row r="79" spans="2:19">
       <c r="B79" s="6">
-        <v>2.6934E-2</v>
+        <v>2.9597999999999999E-2</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>99</v>
@@ -8406,43 +8482,43 @@
         <v>1059</v>
       </c>
       <c r="F79" s="6">
-        <v>8.0470000000000003E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>939</v>
       </c>
       <c r="H79" s="6">
-        <v>2.6934E-2</v>
+        <v>0.35205500000000001</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>819</v>
       </c>
       <c r="J79" s="6">
-        <v>0.82556700000000005</v>
+        <v>0.82587100000000002</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>699</v>
       </c>
       <c r="L79" s="6">
-        <v>8.0470000000000003E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="M79" s="11" t="s">
         <v>579</v>
       </c>
       <c r="N79" s="6">
-        <v>3.6294E-2</v>
+        <v>4.036E-2</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>459</v>
       </c>
       <c r="P79" s="6">
-        <v>9.0200000000000002E-3</v>
+        <v>9.0559999999999998E-3</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>339</v>
       </c>
       <c r="R79" s="6">
-        <v>8.5850000000000006E-3</v>
+        <v>8.6529999999999992E-3</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>219</v>
@@ -8450,55 +8526,55 @@
     </row>
     <row r="80" spans="2:19">
       <c r="B80" s="6">
-        <v>2.2473E-2</v>
+        <v>2.4486000000000001E-2</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D80" s="6">
-        <v>4.8929999999999998E-3</v>
+        <v>4.895E-3</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>1060</v>
       </c>
       <c r="F80" s="6">
-        <v>4.725E-3</v>
+        <v>4.7809999999999997E-3</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>940</v>
       </c>
       <c r="H80" s="6">
-        <v>2.2473E-2</v>
+        <v>0.78978899999999996</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>820</v>
       </c>
       <c r="J80" s="6">
-        <v>1.0170939999999999</v>
+        <v>1.0170589999999999</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>700</v>
       </c>
       <c r="L80" s="6">
-        <v>4.725E-3</v>
+        <v>4.7809999999999997E-3</v>
       </c>
       <c r="M80" s="11" t="s">
         <v>580</v>
       </c>
       <c r="N80" s="6">
-        <v>2.9638999999999999E-2</v>
+        <v>3.2381E-2</v>
       </c>
       <c r="O80" s="11" t="s">
         <v>460</v>
       </c>
       <c r="P80" s="6">
-        <v>6.0089999999999996E-3</v>
+        <v>6.0549999999999996E-3</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>340</v>
       </c>
       <c r="R80" s="6">
-        <v>5.5989999999999998E-3</v>
+        <v>5.6439999999999997E-3</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>220</v>
@@ -8506,7 +8582,7 @@
     </row>
     <row r="81" spans="2:19">
       <c r="B81" s="6">
-        <v>1.2880000000000001E-2</v>
+        <v>1.2933E-2</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>101</v>
@@ -8518,31 +8594,31 @@
         <v>1061</v>
       </c>
       <c r="F81" s="6">
-        <v>1.1682E-2</v>
+        <v>1.1694E-2</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>941</v>
       </c>
       <c r="H81" s="6">
-        <v>1.2880000000000001E-2</v>
+        <v>0.44455499999999998</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>821</v>
       </c>
       <c r="J81" s="6">
-        <v>0.50136199999999997</v>
+        <v>0.501359</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>701</v>
       </c>
       <c r="L81" s="6">
-        <v>1.1682E-2</v>
+        <v>1.1694E-2</v>
       </c>
       <c r="M81" s="11" t="s">
         <v>581</v>
       </c>
       <c r="N81" s="6">
-        <v>1.7788000000000002E-2</v>
+        <v>1.7930000000000001E-2</v>
       </c>
       <c r="O81" s="11" t="s">
         <v>461</v>
@@ -8554,7 +8630,7 @@
         <v>341</v>
       </c>
       <c r="R81" s="6">
-        <v>1.1682E-2</v>
+        <v>1.1694E-2</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>221</v>
@@ -8580,7 +8656,7 @@
         <v>942</v>
       </c>
       <c r="H82" s="6">
-        <v>4.7289999999999997E-3</v>
+        <v>0.405698</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>822</v>
@@ -8618,7 +8694,7 @@
     </row>
     <row r="83" spans="2:19">
       <c r="B83" s="6">
-        <v>6.7349999999999997E-3</v>
+        <v>6.7609999999999996E-3</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>103</v>
@@ -8636,7 +8712,7 @@
         <v>943</v>
       </c>
       <c r="H83" s="6">
-        <v>6.7349999999999997E-3</v>
+        <v>0.53786699999999998</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>823</v>
@@ -8654,7 +8730,7 @@
         <v>583</v>
       </c>
       <c r="N83" s="6">
-        <v>7.7089999999999997E-3</v>
+        <v>7.7409999999999996E-3</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>463</v>
@@ -8666,7 +8742,7 @@
         <v>343</v>
       </c>
       <c r="R83" s="6">
-        <v>4.5640000000000003E-3</v>
+        <v>4.5630000000000002E-3</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>223</v>
@@ -8692,7 +8768,7 @@
         <v>944</v>
       </c>
       <c r="H84" s="6">
-        <v>4.8549999999999999E-3</v>
+        <v>0.49943799999999999</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>824</v>
@@ -8710,7 +8786,7 @@
         <v>584</v>
       </c>
       <c r="N84" s="6">
-        <v>5.927E-3</v>
+        <v>5.9309999999999996E-3</v>
       </c>
       <c r="O84" s="11" t="s">
         <v>464</v>
@@ -8730,25 +8806,25 @@
     </row>
     <row r="85" spans="2:19">
       <c r="B85" s="6">
-        <v>1.0630000000000001E-2</v>
+        <v>1.0673E-2</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D85" s="6">
-        <v>5.4520000000000002E-3</v>
+        <v>5.4539999999999996E-3</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>1065</v>
       </c>
       <c r="F85" s="6">
-        <v>5.0939999999999996E-3</v>
+        <v>5.1009999999999996E-3</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>945</v>
       </c>
       <c r="H85" s="6">
-        <v>1.0630000000000001E-2</v>
+        <v>0.56110800000000005</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>825</v>
@@ -8760,25 +8836,25 @@
         <v>705</v>
       </c>
       <c r="L85" s="6">
-        <v>5.0939999999999996E-3</v>
+        <v>5.1009999999999996E-3</v>
       </c>
       <c r="M85" s="11" t="s">
         <v>585</v>
       </c>
       <c r="N85" s="6">
-        <v>1.4711E-2</v>
+        <v>1.4751999999999999E-2</v>
       </c>
       <c r="O85" s="11" t="s">
         <v>465</v>
       </c>
       <c r="P85" s="6">
-        <v>5.6249999999999998E-3</v>
+        <v>5.6280000000000002E-3</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>345</v>
       </c>
       <c r="R85" s="6">
-        <v>5.3439999999999998E-3</v>
+        <v>5.3540000000000003E-3</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>225</v>
@@ -8804,7 +8880,7 @@
         <v>946</v>
       </c>
       <c r="H86" s="6">
-        <v>2.2109E-2</v>
+        <v>0.28887200000000002</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>826</v>
@@ -8842,7 +8918,7 @@
     </row>
     <row r="87" spans="2:19">
       <c r="B87" s="6">
-        <v>1.8537999999999999E-2</v>
+        <v>1.8678E-2</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>107</v>
@@ -8860,7 +8936,7 @@
         <v>947</v>
       </c>
       <c r="H87" s="6">
-        <v>1.8537999999999999E-2</v>
+        <v>0.182337</v>
       </c>
       <c r="I87" s="11" t="s">
         <v>827</v>
@@ -8878,7 +8954,7 @@
         <v>587</v>
       </c>
       <c r="N87" s="6">
-        <v>2.239E-2</v>
+        <v>2.2606999999999999E-2</v>
       </c>
       <c r="O87" s="11" t="s">
         <v>467</v>
@@ -8916,7 +8992,7 @@
         <v>948</v>
       </c>
       <c r="H88" s="6">
-        <v>3.8370000000000001E-3</v>
+        <v>0.25500299999999998</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>828</v>
@@ -8954,55 +9030,55 @@
     </row>
     <row r="89" spans="2:19">
       <c r="B89" s="6">
-        <v>4.3963000000000002E-2</v>
+        <v>4.4452999999999999E-2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D89" s="6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.7193999999999999E-2</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>1069</v>
       </c>
       <c r="F89" s="6">
-        <v>2.7539000000000001E-2</v>
+        <v>2.7532000000000001E-2</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>949</v>
       </c>
       <c r="H89" s="6">
-        <v>4.3963000000000002E-2</v>
+        <v>1.3864209999999999</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>829</v>
       </c>
       <c r="J89" s="6">
-        <v>2.6484510000000001</v>
+        <v>2.6483059999999998</v>
       </c>
       <c r="K89" s="11" t="s">
         <v>709</v>
       </c>
       <c r="L89" s="6">
-        <v>2.7539000000000001E-2</v>
+        <v>2.7532000000000001E-2</v>
       </c>
       <c r="M89" s="11" t="s">
         <v>589</v>
       </c>
       <c r="N89" s="6">
-        <v>7.2895000000000001E-2</v>
+        <v>7.4434E-2</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>469</v>
       </c>
       <c r="P89" s="6">
-        <v>2.9739000000000002E-2</v>
+        <v>2.9789E-2</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>349</v>
       </c>
       <c r="R89" s="6">
-        <v>2.7539000000000001E-2</v>
+        <v>2.7532000000000001E-2</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>229</v>
@@ -9010,55 +9086,55 @@
     </row>
     <row r="90" spans="2:19">
       <c r="B90" s="6">
-        <v>6.3699999999999998E-4</v>
+        <v>6.4099999999999997E-4</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D90" s="6">
-        <v>4.26E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>1070</v>
       </c>
       <c r="F90" s="6">
-        <v>6.11E-4</v>
+        <v>6.02E-4</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>950</v>
       </c>
       <c r="H90" s="6">
-        <v>6.3699999999999998E-4</v>
+        <v>1.879947</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>830</v>
       </c>
       <c r="J90" s="6">
-        <v>1.525204</v>
+        <v>1.5262469999999999</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>710</v>
       </c>
       <c r="L90" s="6">
-        <v>6.11E-4</v>
+        <v>6.02E-4</v>
       </c>
       <c r="M90" s="11" t="s">
         <v>590</v>
       </c>
       <c r="N90" s="6">
-        <v>5.2069999999999998E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="O90" s="11" t="s">
         <v>470</v>
       </c>
       <c r="P90" s="6">
-        <v>6.5600000000000001E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>350</v>
       </c>
       <c r="R90" s="6">
-        <v>6.11E-4</v>
+        <v>6.02E-4</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>230</v>
@@ -9072,37 +9148,37 @@
         <v>111</v>
       </c>
       <c r="D91" s="6">
-        <v>2.6200000000000003E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>1071</v>
       </c>
       <c r="F91" s="6">
-        <v>4.35E-4</v>
+        <v>4.3399999999999998E-4</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>951</v>
       </c>
       <c r="H91" s="6">
-        <v>4.0700000000000003E-4</v>
+        <v>1.3695360000000001</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>831</v>
       </c>
       <c r="J91" s="6">
-        <v>1.014378</v>
+        <v>1.0144489999999999</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>711</v>
       </c>
       <c r="L91" s="6">
-        <v>4.35E-4</v>
+        <v>4.3399999999999998E-4</v>
       </c>
       <c r="M91" s="11" t="s">
         <v>591</v>
       </c>
       <c r="N91" s="6">
-        <v>3.496E-3</v>
+        <v>3.5070000000000001E-3</v>
       </c>
       <c r="O91" s="11" t="s">
         <v>471</v>
@@ -9114,7 +9190,7 @@
         <v>351</v>
       </c>
       <c r="R91" s="6">
-        <v>4.35E-4</v>
+        <v>4.3399999999999998E-4</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>231</v>
@@ -9122,7 +9198,7 @@
     </row>
     <row r="92" spans="2:19">
       <c r="B92" s="6">
-        <v>7.6140000000000001E-3</v>
+        <v>7.6229999999999996E-3</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>112</v>
@@ -9134,13 +9210,13 @@
         <v>1072</v>
       </c>
       <c r="F92" s="6">
-        <v>4.7959999999999999E-3</v>
+        <v>4.797E-3</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>952</v>
       </c>
       <c r="H92" s="6">
-        <v>7.6140000000000001E-3</v>
+        <v>0.56381899999999996</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>832</v>
@@ -9152,13 +9228,13 @@
         <v>712</v>
       </c>
       <c r="L92" s="6">
-        <v>4.7959999999999999E-3</v>
+        <v>4.797E-3</v>
       </c>
       <c r="M92" s="11" t="s">
         <v>592</v>
       </c>
       <c r="N92" s="6">
-        <v>8.9390000000000008E-3</v>
+        <v>8.9529999999999992E-3</v>
       </c>
       <c r="O92" s="11" t="s">
         <v>472</v>
@@ -9170,7 +9246,7 @@
         <v>352</v>
       </c>
       <c r="R92" s="6">
-        <v>4.895E-3</v>
+        <v>4.8960000000000002E-3</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>232</v>
@@ -9178,7 +9254,7 @@
     </row>
     <row r="93" spans="2:19">
       <c r="B93" s="6">
-        <v>1.1327E-2</v>
+        <v>1.1398E-2</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>113</v>
@@ -9190,13 +9266,13 @@
         <v>1073</v>
       </c>
       <c r="F93" s="6">
-        <v>6.8370000000000002E-3</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>953</v>
       </c>
       <c r="H93" s="6">
-        <v>1.1327E-2</v>
+        <v>0.52989200000000003</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>833</v>
@@ -9208,13 +9284,13 @@
         <v>713</v>
       </c>
       <c r="L93" s="6">
-        <v>6.8370000000000002E-3</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="M93" s="11" t="s">
         <v>593</v>
       </c>
       <c r="N93" s="6">
-        <v>1.4899000000000001E-2</v>
+        <v>1.4992999999999999E-2</v>
       </c>
       <c r="O93" s="11" t="s">
         <v>473</v>
@@ -9226,7 +9302,7 @@
         <v>353</v>
       </c>
       <c r="R93" s="6">
-        <v>7.5849999999999997E-3</v>
+        <v>7.587E-3</v>
       </c>
       <c r="S93" s="11" t="s">
         <v>233</v>
@@ -9234,7 +9310,7 @@
     </row>
     <row r="94" spans="2:19">
       <c r="B94" s="6">
-        <v>1.6899000000000001E-2</v>
+        <v>1.6938000000000002E-2</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>114</v>
@@ -9252,13 +9328,13 @@
         <v>954</v>
       </c>
       <c r="H94" s="6">
-        <v>1.6899000000000001E-2</v>
+        <v>0.48138900000000001</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>834</v>
       </c>
       <c r="J94" s="6">
-        <v>0.63001799999999997</v>
+        <v>0.63002599999999997</v>
       </c>
       <c r="K94" s="11" t="s">
         <v>714</v>
@@ -9270,7 +9346,7 @@
         <v>594</v>
       </c>
       <c r="N94" s="6">
-        <v>2.2578000000000001E-2</v>
+        <v>2.2603999999999999E-2</v>
       </c>
       <c r="O94" s="11" t="s">
         <v>474</v>
@@ -9290,25 +9366,25 @@
     </row>
     <row r="95" spans="2:19">
       <c r="B95" s="6">
-        <v>4.4410999999999999E-2</v>
+        <v>4.5473E-2</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="6">
-        <v>8.3990000000000002E-3</v>
+        <v>8.4019999999999997E-3</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>1075</v>
       </c>
       <c r="F95" s="6">
-        <v>7.626E-3</v>
+        <v>7.7450000000000001E-3</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>955</v>
       </c>
       <c r="H95" s="6">
-        <v>4.4410999999999999E-2</v>
+        <v>0.223577</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>835</v>
@@ -9320,25 +9396,25 @@
         <v>715</v>
       </c>
       <c r="L95" s="6">
-        <v>7.626E-3</v>
+        <v>7.7450000000000001E-3</v>
       </c>
       <c r="M95" s="11" t="s">
         <v>595</v>
       </c>
       <c r="N95" s="6">
-        <v>4.9138000000000001E-2</v>
+        <v>5.0247E-2</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>475</v>
       </c>
       <c r="P95" s="6">
-        <v>9.7900000000000001E-3</v>
+        <v>9.8560000000000002E-3</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>355</v>
       </c>
       <c r="R95" s="6">
-        <v>7.8469999999999998E-3</v>
+        <v>7.9660000000000009E-3</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>235</v>
@@ -9346,7 +9422,7 @@
     </row>
     <row r="96" spans="2:19">
       <c r="B96" s="6">
-        <v>2.2221000000000001E-2</v>
+        <v>2.2585000000000001E-2</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>116</v>
@@ -9364,7 +9440,7 @@
         <v>956</v>
       </c>
       <c r="H96" s="6">
-        <v>2.2221000000000001E-2</v>
+        <v>0.40559800000000001</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>836</v>
@@ -9382,13 +9458,13 @@
         <v>596</v>
       </c>
       <c r="N96" s="6">
-        <v>2.4344999999999999E-2</v>
+        <v>2.4764000000000001E-2</v>
       </c>
       <c r="O96" s="11" t="s">
         <v>476</v>
       </c>
       <c r="P96" s="6">
-        <v>8.6809999999999995E-3</v>
+        <v>8.685E-3</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>356</v>
@@ -9402,7 +9478,7 @@
     </row>
     <row r="97" spans="2:19">
       <c r="B97" s="6">
-        <v>1.5084999999999999E-2</v>
+        <v>1.5108E-2</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>117</v>
@@ -9420,13 +9496,13 @@
         <v>957</v>
       </c>
       <c r="H97" s="6">
-        <v>1.5084999999999999E-2</v>
+        <v>0.40751999999999999</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>837</v>
       </c>
       <c r="J97" s="6">
-        <v>0.418211</v>
+        <v>0.41821199999999997</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>717</v>
@@ -9438,7 +9514,7 @@
         <v>597</v>
       </c>
       <c r="N97" s="6">
-        <v>1.6468E-2</v>
+        <v>1.6487999999999999E-2</v>
       </c>
       <c r="O97" s="11" t="s">
         <v>477</v>
@@ -9458,55 +9534,55 @@
     </row>
     <row r="98" spans="2:19">
       <c r="B98" s="6">
-        <v>8.9648000000000005E-2</v>
+        <v>0.10377699999999999</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D98" s="6">
-        <v>1.8445E-2</v>
+        <v>1.8460000000000001E-2</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>1078</v>
       </c>
       <c r="F98" s="6">
-        <v>2.0223999999999999E-2</v>
+        <v>2.0202999999999999E-2</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>958</v>
       </c>
       <c r="H98" s="6">
-        <v>8.9648000000000005E-2</v>
+        <v>0.74284700000000004</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>838</v>
       </c>
       <c r="J98" s="6">
-        <v>0.79321600000000003</v>
+        <v>0.79289900000000002</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>718</v>
       </c>
       <c r="L98" s="6">
-        <v>2.0223999999999999E-2</v>
+        <v>2.0202999999999999E-2</v>
       </c>
       <c r="M98" s="11" t="s">
         <v>598</v>
       </c>
       <c r="N98" s="6">
-        <v>0.119823</v>
+        <v>0.135157</v>
       </c>
       <c r="O98" s="11" t="s">
         <v>478</v>
       </c>
       <c r="P98" s="6">
-        <v>3.0093999999999999E-2</v>
+        <v>3.1550000000000002E-2</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>358</v>
       </c>
       <c r="R98" s="6">
-        <v>2.0223999999999999E-2</v>
+        <v>2.0202999999999999E-2</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>238</v>
@@ -9514,13 +9590,13 @@
     </row>
     <row r="99" spans="2:19">
       <c r="B99" s="6">
-        <v>7.5659999999999998E-3</v>
+        <v>8.6709999999999999E-3</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="6">
-        <v>7.4100000000000001E-4</v>
+        <v>7.4200000000000004E-4</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>1079</v>
@@ -9532,13 +9608,13 @@
         <v>959</v>
       </c>
       <c r="H99" s="6">
-        <v>7.5659999999999998E-3</v>
+        <v>1.0879529999999999</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>839</v>
       </c>
       <c r="J99" s="6">
-        <v>1.5046850000000001</v>
+        <v>1.504753</v>
       </c>
       <c r="K99" s="11" t="s">
         <v>719</v>
@@ -9550,13 +9626,13 @@
         <v>599</v>
       </c>
       <c r="N99" s="6">
-        <v>8.9789999999999991E-3</v>
+        <v>1.0285000000000001E-2</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>479</v>
       </c>
       <c r="P99" s="6">
-        <v>9.6900000000000003E-4</v>
+        <v>1.0039999999999999E-3</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>359</v>
@@ -9570,55 +9646,55 @@
     </row>
     <row r="100" spans="2:19">
       <c r="B100" s="6">
-        <v>1.4137E-2</v>
+        <v>1.5089999999999999E-2</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D100" s="6">
-        <v>2.3519999999999999E-3</v>
+        <v>2.3570000000000002E-3</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>1080</v>
       </c>
       <c r="F100" s="6">
-        <v>2.794E-3</v>
+        <v>2.7889999999999998E-3</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>960</v>
       </c>
       <c r="H100" s="6">
-        <v>1.4137E-2</v>
+        <v>1.1721090000000001</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>840</v>
       </c>
       <c r="J100" s="6">
-        <v>1.6475010000000001</v>
+        <v>1.6466320000000001</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>720</v>
       </c>
       <c r="L100" s="6">
-        <v>2.794E-3</v>
+        <v>2.7889999999999998E-3</v>
       </c>
       <c r="M100" s="11" t="s">
         <v>600</v>
       </c>
       <c r="N100" s="6">
-        <v>1.9497E-2</v>
+        <v>2.0684999999999999E-2</v>
       </c>
       <c r="O100" s="11" t="s">
         <v>480</v>
       </c>
       <c r="P100" s="6">
-        <v>3.0860000000000002E-3</v>
+        <v>3.1459999999999999E-3</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>360</v>
       </c>
       <c r="R100" s="6">
-        <v>3.127E-3</v>
+        <v>3.124E-3</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>240</v>
@@ -9626,55 +9702,55 @@
     </row>
     <row r="101" spans="2:19">
       <c r="B101" s="6">
-        <v>7.208E-3</v>
+        <v>8.3840000000000008E-3</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D101" s="6">
-        <v>1.111E-3</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>1081</v>
       </c>
       <c r="F101" s="6">
-        <v>1.147E-3</v>
+        <v>1.1869999999999999E-3</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>961</v>
       </c>
       <c r="H101" s="6">
-        <v>7.208E-3</v>
+        <v>0.16853399999999999</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>841</v>
       </c>
       <c r="J101" s="6">
-        <v>0.955067</v>
+        <v>0.95470699999999997</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>721</v>
       </c>
       <c r="L101" s="6">
-        <v>1.147E-3</v>
+        <v>1.1869999999999999E-3</v>
       </c>
       <c r="M101" s="11" t="s">
         <v>601</v>
       </c>
       <c r="N101" s="6">
-        <v>8.9650000000000007E-3</v>
+        <v>1.0534E-2</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>481</v>
       </c>
       <c r="P101" s="6">
-        <v>1.33E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>361</v>
       </c>
       <c r="R101" s="6">
-        <v>1.266E-3</v>
+        <v>1.3060000000000001E-3</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>241</v>
@@ -9682,7 +9758,7 @@
     </row>
     <row r="102" spans="2:19">
       <c r="B102" s="6">
-        <v>9.1750000000000009E-3</v>
+        <v>9.476E-3</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>122</v>
@@ -9700,13 +9776,13 @@
         <v>962</v>
       </c>
       <c r="H102" s="6">
-        <v>9.1750000000000009E-3</v>
+        <v>0.80680200000000002</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>842</v>
       </c>
       <c r="J102" s="6">
-        <v>0.92580200000000001</v>
+        <v>0.92584200000000005</v>
       </c>
       <c r="K102" s="11" t="s">
         <v>722</v>
@@ -9718,7 +9794,7 @@
         <v>602</v>
       </c>
       <c r="N102" s="6">
-        <v>1.4015E-2</v>
+        <v>1.4439E-2</v>
       </c>
       <c r="O102" s="11" t="s">
         <v>482</v>
@@ -9738,55 +9814,55 @@
     </row>
     <row r="103" spans="2:19">
       <c r="B103" s="6">
-        <v>3.7532999999999997E-2</v>
+        <v>3.9645E-2</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D103" s="6">
-        <v>4.6439999999999997E-3</v>
+        <v>4.6449999999999998E-3</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>1083</v>
       </c>
       <c r="F103" s="6">
-        <v>4.7169999999999998E-3</v>
+        <v>4.7679999999999997E-3</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>963</v>
       </c>
       <c r="H103" s="6">
-        <v>3.7532999999999997E-2</v>
+        <v>0.33974700000000002</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>843</v>
       </c>
       <c r="J103" s="6">
-        <v>1.736626</v>
+        <v>1.736208</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>723</v>
       </c>
       <c r="L103" s="6">
-        <v>4.7169999999999998E-3</v>
+        <v>4.7679999999999997E-3</v>
       </c>
       <c r="M103" s="11" t="s">
         <v>603</v>
       </c>
       <c r="N103" s="6">
-        <v>4.0534000000000001E-2</v>
+        <v>4.2860000000000002E-2</v>
       </c>
       <c r="O103" s="11" t="s">
         <v>483</v>
       </c>
       <c r="P103" s="6">
-        <v>5.9550000000000002E-3</v>
+        <v>6.0020000000000004E-3</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>363</v>
       </c>
       <c r="R103" s="6">
-        <v>5.0369999999999998E-3</v>
+        <v>5.0939999999999996E-3</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>243</v>
@@ -9794,7 +9870,7 @@
     </row>
     <row r="104" spans="2:19">
       <c r="B104" s="6">
-        <v>2.1333000000000001E-2</v>
+        <v>2.1645000000000001E-2</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>124</v>
@@ -9806,43 +9882,43 @@
         <v>1084</v>
       </c>
       <c r="F104" s="6">
-        <v>2.124E-3</v>
+        <v>2.137E-3</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>964</v>
       </c>
       <c r="H104" s="6">
-        <v>2.1333000000000001E-2</v>
+        <v>0.20147699999999999</v>
       </c>
       <c r="I104" s="11" t="s">
         <v>844</v>
       </c>
       <c r="J104" s="6">
-        <v>0.40048400000000001</v>
+        <v>0.40048499999999998</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>724</v>
       </c>
       <c r="L104" s="6">
-        <v>2.124E-3</v>
+        <v>2.137E-3</v>
       </c>
       <c r="M104" s="11" t="s">
         <v>604</v>
       </c>
       <c r="N104" s="6">
-        <v>3.0865E-2</v>
+        <v>3.1314000000000002E-2</v>
       </c>
       <c r="O104" s="11" t="s">
         <v>484</v>
       </c>
       <c r="P104" s="6">
-        <v>2.464E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="Q104" s="11" t="s">
         <v>364</v>
       </c>
       <c r="R104" s="6">
-        <v>2.3149999999999998E-3</v>
+        <v>2.3210000000000001E-3</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>244</v>
@@ -9850,7 +9926,7 @@
     </row>
     <row r="105" spans="2:19">
       <c r="B105" s="6">
-        <v>2.65E-3</v>
+        <v>2.7360000000000002E-3</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>125</v>
@@ -9862,43 +9938,43 @@
         <v>1085</v>
       </c>
       <c r="F105" s="6">
-        <v>5.4000000000000001E-4</v>
+        <v>5.4299999999999997E-4</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>965</v>
       </c>
       <c r="H105" s="6">
-        <v>2.65E-3</v>
+        <v>9.5804E-2</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>845</v>
       </c>
       <c r="J105" s="6">
-        <v>0.21598500000000001</v>
+        <v>0.21601300000000001</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>725</v>
       </c>
       <c r="L105" s="6">
-        <v>5.4000000000000001E-4</v>
+        <v>5.4299999999999997E-4</v>
       </c>
       <c r="M105" s="11" t="s">
         <v>605</v>
       </c>
       <c r="N105" s="6">
-        <v>3.9290000000000002E-3</v>
+        <v>3.9579999999999997E-3</v>
       </c>
       <c r="O105" s="11" t="s">
         <v>485</v>
       </c>
       <c r="P105" s="6">
-        <v>5.5199999999999997E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>365</v>
       </c>
       <c r="R105" s="6">
-        <v>6.9499999999999998E-4</v>
+        <v>6.9899999999999997E-4</v>
       </c>
       <c r="S105" s="11" t="s">
         <v>245</v>
@@ -9906,55 +9982,55 @@
     </row>
     <row r="106" spans="2:19">
       <c r="B106" s="6">
-        <v>1.1571E-2</v>
+        <v>1.2671E-2</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D106" s="6">
-        <v>7.6369999999999997E-3</v>
+        <v>7.7190000000000002E-3</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>1086</v>
       </c>
       <c r="F106" s="6">
-        <v>8.071E-3</v>
+        <v>8.5920000000000007E-3</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>966</v>
       </c>
       <c r="H106" s="6">
-        <v>1.1571E-2</v>
+        <v>0.142787</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>846</v>
       </c>
       <c r="J106" s="6">
-        <v>0.30898399999999998</v>
+        <v>0.30898500000000001</v>
       </c>
       <c r="K106" s="11" t="s">
         <v>726</v>
       </c>
       <c r="L106" s="6">
-        <v>8.071E-3</v>
+        <v>8.5920000000000007E-3</v>
       </c>
       <c r="M106" s="11" t="s">
         <v>606</v>
       </c>
       <c r="N106" s="6">
-        <v>1.644E-2</v>
+        <v>1.7503999999999999E-2</v>
       </c>
       <c r="O106" s="11" t="s">
         <v>486</v>
       </c>
       <c r="P106" s="6">
-        <v>8.3049999999999999E-3</v>
+        <v>8.6890000000000005E-3</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>366</v>
       </c>
       <c r="R106" s="6">
-        <v>8.071E-3</v>
+        <v>8.5920000000000007E-3</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>246</v>
@@ -9962,13 +10038,13 @@
     </row>
     <row r="107" spans="2:19">
       <c r="B107" s="6">
-        <v>2.6250000000000002E-3</v>
+        <v>2.8639999999999998E-3</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D107" s="6">
-        <v>7.45E-4</v>
+        <v>7.4299999999999995E-4</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>1087</v>
@@ -9980,13 +10056,13 @@
         <v>967</v>
       </c>
       <c r="H107" s="6">
-        <v>2.6250000000000002E-3</v>
+        <v>1.5958619999999999</v>
       </c>
       <c r="I107" s="11" t="s">
         <v>847</v>
       </c>
       <c r="J107" s="6">
-        <v>1.745357</v>
+        <v>1.7441260000000001</v>
       </c>
       <c r="K107" s="11" t="s">
         <v>727</v>
@@ -9998,7 +10074,7 @@
         <v>607</v>
       </c>
       <c r="N107" s="6">
-        <v>3.885E-3</v>
+        <v>4.4320000000000002E-3</v>
       </c>
       <c r="O107" s="11" t="s">
         <v>487</v>
@@ -10018,7 +10094,7 @@
     </row>
     <row r="108" spans="2:19">
       <c r="B108" s="6">
-        <v>6.8370000000000002E-3</v>
+        <v>7.528E-3</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>128</v>
@@ -10036,13 +10112,13 @@
         <v>968</v>
       </c>
       <c r="H108" s="6">
-        <v>6.8370000000000002E-3</v>
+        <v>1.556597</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>848</v>
       </c>
       <c r="J108" s="6">
-        <v>1.5960369999999999</v>
+        <v>1.5958319999999999</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>728</v>
@@ -10054,13 +10130,13 @@
         <v>608</v>
       </c>
       <c r="N108" s="6">
-        <v>1.0888E-2</v>
+        <v>1.1070999999999999E-2</v>
       </c>
       <c r="O108" s="11" t="s">
         <v>488</v>
       </c>
       <c r="P108" s="6">
-        <v>1.8129999999999999E-3</v>
+        <v>1.8209999999999999E-3</v>
       </c>
       <c r="Q108" s="11" t="s">
         <v>368</v>
@@ -10074,13 +10150,13 @@
     </row>
     <row r="109" spans="2:19">
       <c r="B109" s="6">
-        <v>1.1816E-2</v>
+        <v>1.4945999999999999E-2</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D109" s="6">
-        <v>2.8019999999999998E-3</v>
+        <v>2.8119999999999998E-3</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>1089</v>
@@ -10092,13 +10168,13 @@
         <v>969</v>
       </c>
       <c r="H109" s="6">
-        <v>1.1816E-2</v>
+        <v>1.738343</v>
       </c>
       <c r="I109" s="11" t="s">
         <v>849</v>
       </c>
       <c r="J109" s="6">
-        <v>3.049112</v>
+        <v>3.0483579999999999</v>
       </c>
       <c r="K109" s="11" t="s">
         <v>729</v>
@@ -10110,19 +10186,19 @@
         <v>609</v>
       </c>
       <c r="N109" s="6">
-        <v>1.8169999999999999E-2</v>
+        <v>2.0712999999999999E-2</v>
       </c>
       <c r="O109" s="11" t="s">
         <v>489</v>
       </c>
       <c r="P109" s="6">
-        <v>3.3270000000000001E-3</v>
+        <v>3.64E-3</v>
       </c>
       <c r="Q109" s="11" t="s">
         <v>369</v>
       </c>
       <c r="R109" s="6">
-        <v>4.8669999999999998E-3</v>
+        <v>4.8659999999999997E-3</v>
       </c>
       <c r="S109" s="11" t="s">
         <v>249</v>
@@ -10130,13 +10206,13 @@
     </row>
     <row r="110" spans="2:19">
       <c r="B110" s="6">
-        <v>3.7919999999999998E-3</v>
+        <v>3.9220000000000001E-3</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D110" s="6">
-        <v>2.8419999999999999E-3</v>
+        <v>2.846E-3</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>1090</v>
@@ -10148,13 +10224,13 @@
         <v>970</v>
       </c>
       <c r="H110" s="6">
-        <v>3.7919999999999998E-3</v>
+        <v>2.8430219999999999</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>850</v>
       </c>
       <c r="J110" s="6">
-        <v>4.8147840000000004</v>
+        <v>4.8148949999999999</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>730</v>
@@ -10166,13 +10242,13 @@
         <v>610</v>
       </c>
       <c r="N110" s="6">
-        <v>1.3194000000000001E-2</v>
+        <v>1.3408E-2</v>
       </c>
       <c r="O110" s="11" t="s">
         <v>490</v>
       </c>
       <c r="P110" s="6">
-        <v>3.1050000000000001E-3</v>
+        <v>3.14E-3</v>
       </c>
       <c r="Q110" s="11" t="s">
         <v>370</v>
@@ -10186,7 +10262,7 @@
     </row>
     <row r="111" spans="2:19">
       <c r="B111" s="6">
-        <v>1.2260999999999999E-2</v>
+        <v>1.2602E-2</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>131</v>
@@ -10198,43 +10274,43 @@
         <v>1091</v>
       </c>
       <c r="F111" s="6">
-        <v>1.1068E-2</v>
+        <v>1.1218000000000001E-2</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>971</v>
       </c>
       <c r="H111" s="6">
-        <v>1.2260999999999999E-2</v>
+        <v>0.29369200000000001</v>
       </c>
       <c r="I111" s="11" t="s">
         <v>851</v>
       </c>
       <c r="J111" s="6">
-        <v>0.44049100000000002</v>
+        <v>0.44048100000000001</v>
       </c>
       <c r="K111" s="11" t="s">
         <v>731</v>
       </c>
       <c r="L111" s="6">
-        <v>1.1068E-2</v>
+        <v>1.1218000000000001E-2</v>
       </c>
       <c r="M111" s="11" t="s">
         <v>611</v>
       </c>
       <c r="N111" s="6">
-        <v>1.6990999999999999E-2</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="O111" s="11" t="s">
         <v>491</v>
       </c>
       <c r="P111" s="6">
-        <v>1.0977000000000001E-2</v>
+        <v>1.0992999999999999E-2</v>
       </c>
       <c r="Q111" s="11" t="s">
         <v>371</v>
       </c>
       <c r="R111" s="6">
-        <v>1.1068E-2</v>
+        <v>1.1218000000000001E-2</v>
       </c>
       <c r="S111" s="11" t="s">
         <v>251</v>
@@ -10242,55 +10318,55 @@
     </row>
     <row r="112" spans="2:19">
       <c r="B112" s="6">
-        <v>4.2255000000000001E-2</v>
+        <v>4.2888000000000003E-2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D112" s="6">
-        <v>3.6812999999999999E-2</v>
+        <v>3.6989000000000001E-2</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="F112" s="6">
-        <v>3.9810999999999999E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>972</v>
       </c>
       <c r="H112" s="6">
-        <v>4.2255000000000001E-2</v>
+        <v>0.35104099999999999</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>852</v>
       </c>
       <c r="J112" s="6">
-        <v>0.53924499999999997</v>
+        <v>0.5383</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>732</v>
       </c>
       <c r="L112" s="6">
-        <v>3.9810999999999999E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="M112" s="11" t="s">
         <v>612</v>
       </c>
       <c r="N112" s="6">
-        <v>6.13E-2</v>
+        <v>6.2293000000000001E-2</v>
       </c>
       <c r="O112" s="11" t="s">
         <v>492</v>
       </c>
       <c r="P112" s="6">
-        <v>3.7581000000000003E-2</v>
+        <v>3.7812999999999999E-2</v>
       </c>
       <c r="Q112" s="11" t="s">
         <v>372</v>
       </c>
       <c r="R112" s="6">
-        <v>3.9810999999999999E-2</v>
+        <v>4.0250000000000001E-2</v>
       </c>
       <c r="S112" s="11" t="s">
         <v>252</v>
@@ -10316,7 +10392,7 @@
         <v>973</v>
       </c>
       <c r="H113" s="6">
-        <v>6.6249999999999998E-3</v>
+        <v>2.0738379999999998</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>853</v>
@@ -10354,25 +10430,25 @@
     </row>
     <row r="114" spans="1:19">
       <c r="B114" s="6">
-        <v>8.3639999999999999E-3</v>
+        <v>1.1310000000000001E-2</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D114" s="6">
-        <v>4.2729999999999999E-3</v>
+        <v>4.287E-3</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>1094</v>
       </c>
       <c r="F114" s="6">
-        <v>5.2709999999999996E-3</v>
+        <v>5.2690000000000002E-3</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>974</v>
       </c>
       <c r="H114" s="6">
-        <v>8.3639999999999999E-3</v>
+        <v>0.24338099999999999</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>854</v>
@@ -10384,25 +10460,25 @@
         <v>734</v>
       </c>
       <c r="L114" s="6">
-        <v>5.2709999999999996E-3</v>
+        <v>5.2690000000000002E-3</v>
       </c>
       <c r="M114" s="11" t="s">
         <v>614</v>
       </c>
       <c r="N114" s="6">
-        <v>1.073E-2</v>
+        <v>1.4196E-2</v>
       </c>
       <c r="O114" s="11" t="s">
         <v>494</v>
       </c>
       <c r="P114" s="6">
-        <v>4.5079999999999999E-3</v>
+        <v>4.6800000000000001E-3</v>
       </c>
       <c r="Q114" s="11" t="s">
         <v>374</v>
       </c>
       <c r="R114" s="6">
-        <v>5.5160000000000001E-3</v>
+        <v>5.5139999999999998E-3</v>
       </c>
       <c r="S114" s="11" t="s">
         <v>254</v>
@@ -10410,55 +10486,55 @@
     </row>
     <row r="115" spans="1:19">
       <c r="B115" s="6">
-        <v>2.3001000000000001E-2</v>
+        <v>2.9857000000000002E-2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D115" s="6">
-        <v>4.5659999999999997E-3</v>
+        <v>4.6779999999999999E-3</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>1095</v>
       </c>
       <c r="F115" s="6">
-        <v>5.6600000000000001E-3</v>
+        <v>5.5630000000000002E-3</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>975</v>
       </c>
       <c r="H115" s="6">
-        <v>2.3001000000000001E-2</v>
+        <v>0.19908100000000001</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>855</v>
       </c>
       <c r="J115" s="6">
-        <v>0.453905</v>
+        <v>0.45414100000000002</v>
       </c>
       <c r="K115" s="11" t="s">
         <v>735</v>
       </c>
       <c r="L115" s="6">
-        <v>5.6600000000000001E-3</v>
+        <v>5.5630000000000002E-3</v>
       </c>
       <c r="M115" s="11" t="s">
         <v>615</v>
       </c>
       <c r="N115" s="6">
-        <v>3.0426999999999999E-2</v>
+        <v>3.6596999999999998E-2</v>
       </c>
       <c r="O115" s="11" t="s">
         <v>495</v>
       </c>
       <c r="P115" s="6">
-        <v>5.4900000000000001E-3</v>
+        <v>7.522E-3</v>
       </c>
       <c r="Q115" s="11" t="s">
         <v>375</v>
       </c>
       <c r="R115" s="6">
-        <v>6.3049999999999998E-3</v>
+        <v>6.2090000000000001E-3</v>
       </c>
       <c r="S115" s="11" t="s">
         <v>255</v>
@@ -10466,55 +10542,55 @@
     </row>
     <row r="116" spans="1:19">
       <c r="B116" s="6">
-        <v>1.9910000000000001E-3</v>
+        <v>2.3830000000000001E-3</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D116" s="6">
-        <v>1.2149999999999999E-3</v>
+        <v>1.219E-3</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>1096</v>
       </c>
       <c r="F116" s="6">
-        <v>1.408E-3</v>
+        <v>1.403E-3</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>976</v>
       </c>
       <c r="H116" s="6">
-        <v>1.9910000000000001E-3</v>
+        <v>0.34287099999999998</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>856</v>
       </c>
       <c r="J116" s="6">
-        <v>0.50313099999999999</v>
+        <v>0.50316099999999997</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>736</v>
       </c>
       <c r="L116" s="6">
-        <v>1.408E-3</v>
+        <v>1.403E-3</v>
       </c>
       <c r="M116" s="11" t="s">
         <v>616</v>
       </c>
       <c r="N116" s="6">
-        <v>3.5530000000000002E-3</v>
+        <v>3.9769999999999996E-3</v>
       </c>
       <c r="O116" s="11" t="s">
         <v>496</v>
       </c>
       <c r="P116" s="6">
-        <v>1.1640000000000001E-3</v>
+        <v>1.196E-3</v>
       </c>
       <c r="Q116" s="11" t="s">
         <v>376</v>
       </c>
       <c r="R116" s="6">
-        <v>1.957E-3</v>
+        <v>1.9550000000000001E-3</v>
       </c>
       <c r="S116" s="11" t="s">
         <v>256</v>
@@ -10522,55 +10598,55 @@
     </row>
     <row r="117" spans="1:19">
       <c r="B117" s="6">
-        <v>3.2109999999999999E-3</v>
+        <v>3.2629999999999998E-3</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D117" s="6">
-        <v>2.3119999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>1097</v>
       </c>
       <c r="F117" s="6">
-        <v>2.2889999999999998E-3</v>
+        <v>2.2880000000000001E-3</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>977</v>
       </c>
       <c r="H117" s="6">
-        <v>3.2109999999999999E-3</v>
+        <v>1.4744139999999999</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>857</v>
       </c>
       <c r="J117" s="6">
-        <v>1.527134</v>
+        <v>1.5271300000000001</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>737</v>
       </c>
       <c r="L117" s="6">
-        <v>2.2889999999999998E-3</v>
+        <v>2.2880000000000001E-3</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>617</v>
       </c>
       <c r="N117" s="6">
-        <v>4.7959999999999999E-3</v>
+        <v>4.8849999999999996E-3</v>
       </c>
       <c r="O117" s="11" t="s">
         <v>497</v>
       </c>
       <c r="P117" s="6">
-        <v>2.372E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="Q117" s="11" t="s">
         <v>377</v>
       </c>
       <c r="R117" s="6">
-        <v>2.2889999999999998E-3</v>
+        <v>2.2880000000000001E-3</v>
       </c>
       <c r="S117" s="11" t="s">
         <v>257</v>
@@ -10578,7 +10654,7 @@
     </row>
     <row r="118" spans="1:19">
       <c r="B118" s="6">
-        <v>1.42E-3</v>
+        <v>1.5579999999999999E-3</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>138</v>
@@ -10596,13 +10672,13 @@
         <v>978</v>
       </c>
       <c r="H118" s="6">
-        <v>1.42E-3</v>
+        <v>1.772014</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>858</v>
       </c>
       <c r="J118" s="6">
-        <v>1.792397</v>
+        <v>1.7924789999999999</v>
       </c>
       <c r="K118" s="11" t="s">
         <v>738</v>
@@ -10614,7 +10690,7 @@
         <v>618</v>
       </c>
       <c r="N118" s="6">
-        <v>2.7699999999999999E-3</v>
+        <v>3.0560000000000001E-3</v>
       </c>
       <c r="O118" s="11" t="s">
         <v>498</v>
@@ -10634,7 +10710,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="B119" s="6">
-        <v>2.1330999999999999E-2</v>
+        <v>2.1676999999999998E-2</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>139</v>
@@ -10646,43 +10722,43 @@
         <v>1099</v>
       </c>
       <c r="F119" s="6">
-        <v>1.7288000000000001E-2</v>
+        <v>1.7329000000000001E-2</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>979</v>
       </c>
       <c r="H119" s="6">
-        <v>2.1330999999999999E-2</v>
+        <v>0.30859900000000001</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>859</v>
       </c>
       <c r="J119" s="6">
-        <v>0.60848400000000002</v>
+        <v>0.60853000000000002</v>
       </c>
       <c r="K119" s="11" t="s">
         <v>739</v>
       </c>
       <c r="L119" s="6">
-        <v>1.7288000000000001E-2</v>
+        <v>1.7329000000000001E-2</v>
       </c>
       <c r="M119" s="11" t="s">
         <v>619</v>
       </c>
       <c r="N119" s="6">
-        <v>3.0192E-2</v>
+        <v>3.1407999999999998E-2</v>
       </c>
       <c r="O119" s="11" t="s">
         <v>499</v>
       </c>
       <c r="P119" s="6">
-        <v>1.6719999999999999E-2</v>
+        <v>1.6729000000000001E-2</v>
       </c>
       <c r="Q119" s="11" t="s">
         <v>379</v>
       </c>
       <c r="R119" s="6">
-        <v>1.7288000000000001E-2</v>
+        <v>1.7329000000000001E-2</v>
       </c>
       <c r="S119" s="11" t="s">
         <v>259</v>
@@ -10690,55 +10766,55 @@
     </row>
     <row r="120" spans="1:19">
       <c r="B120" s="6">
-        <v>1.9778E-2</v>
+        <v>2.0506E-2</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D120" s="6">
-        <v>7.2760000000000003E-3</v>
+        <v>7.2779999999999997E-3</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>1100</v>
       </c>
       <c r="F120" s="6">
-        <v>7.5129999999999997E-3</v>
+        <v>7.5329999999999998E-3</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>980</v>
       </c>
       <c r="H120" s="6">
-        <v>1.9778E-2</v>
+        <v>0.62757399999999997</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>860</v>
       </c>
       <c r="J120" s="6">
-        <v>0.95180500000000001</v>
+        <v>0.95181700000000002</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>740</v>
       </c>
       <c r="L120" s="6">
-        <v>7.5129999999999997E-3</v>
+        <v>7.5329999999999998E-3</v>
       </c>
       <c r="M120" s="11" t="s">
         <v>620</v>
       </c>
       <c r="N120" s="6">
-        <v>1.9778E-2</v>
+        <v>2.0506E-2</v>
       </c>
       <c r="O120" s="11" t="s">
         <v>500</v>
       </c>
       <c r="P120" s="6">
-        <v>8.2939999999999993E-3</v>
+        <v>8.3149999999999995E-3</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>380</v>
       </c>
       <c r="R120" s="6">
-        <v>7.5129999999999997E-3</v>
+        <v>7.5329999999999998E-3</v>
       </c>
       <c r="S120" s="11" t="s">
         <v>260</v>
@@ -10764,13 +10840,13 @@
         <v>981</v>
       </c>
       <c r="H121" s="6">
-        <v>4.0800000000000003E-3</v>
+        <v>0.39357700000000001</v>
       </c>
       <c r="I121" s="11" t="s">
         <v>861</v>
       </c>
       <c r="J121" s="6">
-        <v>0.29291800000000001</v>
+        <v>0.29291899999999998</v>
       </c>
       <c r="K121" s="11" t="s">
         <v>741</v>
@@ -10820,7 +10896,7 @@
         <v>982</v>
       </c>
       <c r="H122" s="6">
-        <v>6.8440000000000003E-3</v>
+        <v>0.356852</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>862</v>
@@ -10862,47 +10938,47 @@
       </c>
       <c r="B123" s="5">
         <f>AVERAGE(B3:B122)</f>
-        <v>1.6158666666666672E-2</v>
+        <v>1.7290675000000002E-2</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="5">
         <f>AVERAGE(D3:D122)</f>
-        <v>5.5215333333333335E-3</v>
+        <v>5.5314000000000058E-3</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="5">
         <f>AVERAGE(F3:F122)</f>
-        <v>5.8526750000000025E-3</v>
+        <v>5.8870083333333358E-3</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="5">
         <f>AVERAGE(H3:H122)</f>
-        <v>1.6158666666666672E-2</v>
+        <v>0.75828374166666634</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="5">
         <f>AVERAGE(J3:J122)</f>
-        <v>1.0229636916666669</v>
+        <v>1.0228240416666674</v>
       </c>
       <c r="K123" s="13"/>
       <c r="L123" s="5">
         <f>AVERAGE(L3:L122)</f>
-        <v>5.8526750000000025E-3</v>
+        <v>5.8870083333333358E-3</v>
       </c>
       <c r="M123" s="13"/>
       <c r="N123" s="5">
         <f>AVERAGE(N3:N122)</f>
-        <v>2.2119324999999999E-2</v>
+        <v>2.3337975E-2</v>
       </c>
       <c r="O123" s="13"/>
       <c r="P123" s="5">
         <f>AVERAGE(P3:P122)</f>
-        <v>7.2112416666666674E-3</v>
+        <v>7.3288416666666654E-3</v>
       </c>
       <c r="Q123" s="13"/>
       <c r="R123" s="5">
         <f>AVERAGE(R3:R122)</f>
-        <v>6.2122916666666663E-3</v>
+        <v>6.2455166666666694E-3</v>
       </c>
       <c r="S123" s="13"/>
     </row>
@@ -10912,42 +10988,42 @@
       </c>
       <c r="B124" s="3">
         <f>MEDIAN(B3:B122)</f>
-        <v>1.0388000000000001E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="3">
         <f>MEDIAN(D3:D122)</f>
-        <v>4.2120000000000005E-3</v>
+        <v>4.2404999999999995E-3</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="3">
         <f>MEDIAN(F3:F122)</f>
-        <v>4.4305000000000004E-3</v>
+        <v>4.4574999999999997E-3</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="3">
         <f>MEDIAN(H3:H122)</f>
-        <v>1.0388000000000001E-2</v>
+        <v>0.44405850000000002</v>
       </c>
       <c r="I124" s="10"/>
       <c r="J124" s="3">
         <f>MEDIAN(J3:J122)</f>
-        <v>0.69951150000000006</v>
+        <v>0.69961549999999995</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="3">
         <f>MEDIAN(L3:L122)</f>
-        <v>4.4305000000000004E-3</v>
+        <v>4.4574999999999997E-3</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="3">
         <f>MEDIAN(N3:N122)</f>
-        <v>1.5411500000000002E-2</v>
+        <v>1.5453000000000001E-2</v>
       </c>
       <c r="O124" s="10"/>
       <c r="P124" s="3">
         <f>MEDIAN(P3:P122)</f>
-        <v>5.0829999999999998E-3</v>
+        <v>5.3319999999999999E-3</v>
       </c>
       <c r="Q124" s="10"/>
       <c r="R124" s="3">
@@ -10962,47 +11038,47 @@
       </c>
       <c r="B125" s="5">
         <f>AVERAGE(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>1.5918484848484855E-2</v>
+        <v>1.6647878787878791E-2</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="5">
         <f>AVERAGE(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>6.1087878787878802E-3</v>
+        <v>6.1122272727272744E-3</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="5">
         <f>AVERAGE(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>6.3636818181818213E-3</v>
+        <v>6.4082121212121227E-3</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="5">
         <f>AVERAGE(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>1.5918484848484855E-2</v>
+        <v>0.36335043939393946</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="5">
         <f>AVERAGE(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>0.60203866666666672</v>
+        <v>0.60209569696969678</v>
       </c>
       <c r="K125" s="13"/>
       <c r="L125" s="5">
         <f>AVERAGE(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>6.3636818181818213E-3</v>
+        <v>6.4082121212121227E-3</v>
       </c>
       <c r="M125" s="13"/>
       <c r="N125" s="5">
         <f>AVERAGE(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>2.1117196969696973E-2</v>
+        <v>2.1950712121212121E-2</v>
       </c>
       <c r="O125" s="13"/>
       <c r="P125" s="5">
         <f>AVERAGE(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>8.1889090909090939E-3</v>
+        <v>8.2490151515151496E-3</v>
       </c>
       <c r="Q125" s="13"/>
       <c r="R125" s="5">
         <f>AVERAGE(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>6.5430303030303066E-3</v>
+        <v>6.5852727272727287E-3</v>
       </c>
       <c r="S125" s="13"/>
     </row>
@@ -11012,47 +11088,47 @@
       </c>
       <c r="B126" s="3">
         <f>MEDIAN(B3:B7,B12:B17,B21,B23:B26,B31,B34,B39:B47,B52:B57,B61,B63:B66,B71,B74,B79:B87,B92:B97,B101,B103:B106,B111,B114,B119:B122)</f>
-        <v>1.2907999999999999E-2</v>
+        <v>1.2985E-2</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="3">
         <f>MEDIAN(D3:D7,D12:D17,D21,D23:D26,D31,D34,D39:D47,D52:D57,D61,D63:D66,D71,D74,D79:D87,D92:D97,D101,D103:D106,D111,D114,D119:D122)</f>
-        <v>5.6404999999999997E-3</v>
+        <v>5.6474999999999997E-3</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="3">
         <f>MEDIAN(F3:F7,F12:F17,F21,F23:F26,F31,F34,F39:F47,F52:F57,F61,F63:F66,F71,F74,F79:F87,F92:F97,F101,F103:F106,F111,F114,F119:F122)</f>
-        <v>5.5529999999999998E-3</v>
+        <v>5.5569999999999994E-3</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="3">
         <f>MEDIAN(H3:H7,H12:H17,H21,H23:H26,H31,H34,H39:H47,H52:H57,H61,H63:H66,H71,H74,H79:H87,H92:H97,H101,H103:H106,H111,H114,H119:H122)</f>
-        <v>1.2907999999999999E-2</v>
+        <v>0.35171399999999997</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="3">
         <f>MEDIAN(J3:J7,J12:J17,J21,J23:J26,J31,J34,J39:J47,J52:J57,J61,J63:J66,J71,J74,J79:J87,J92:J97,J101,J103:J106,J111,J114,J119:J122)</f>
-        <v>0.482039</v>
+        <v>0.48204000000000002</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="3">
         <f>MEDIAN(L3:L7,L12:L17,L21,L23:L26,L31,L34,L39:L47,L52:L57,L61,L63:L66,L71,L74,L79:L87,L92:L97,L101,L103:L106,L111,L114,L119:L122)</f>
-        <v>5.5529999999999998E-3</v>
+        <v>5.5569999999999994E-3</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="3">
         <f>MEDIAN(N3:N7,N12:N17,N21,N23:N26,N31,N34,N39:N47,N52:N57,N61,N63:N66,N71,N74,N79:N87,N92:N97,N101,N103:N106,N111,N114,N119:N122)</f>
-        <v>1.85005E-2</v>
+        <v>1.8641999999999999E-2</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="3">
         <f>MEDIAN(P3:P7,P12:P17,P21,P23:P26,P31,P34,P39:P47,P52:P57,P61,P63:P66,P71,P74,P79:P87,P92:P97,P101,P103:P106,P111,P114,P119:P122)</f>
-        <v>6.2775000000000001E-3</v>
+        <v>6.3595000000000006E-3</v>
       </c>
       <c r="Q126" s="10"/>
       <c r="R126" s="3">
         <f>MEDIAN(R3:R7,R12:R17,R21,R23:R26,R31,R34,R39:R47,R52:R57,R61,R63:R66,R71,R74,R79:R87,R92:R97,R101,R103:R106,R111,R114,R119:R122)</f>
-        <v>5.6860000000000001E-3</v>
+        <v>5.7085E-3</v>
       </c>
       <c r="S126" s="10"/>
     </row>
@@ -11062,47 +11138,47 @@
       </c>
       <c r="B127" s="5">
         <f>AVERAGE(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>1.6452222222222226E-2</v>
+        <v>1.8076314814814823E-2</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="5">
         <f>AVERAGE(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>4.8037777777777783E-3</v>
+        <v>4.8215000000000011E-3</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="5">
         <f>AVERAGE(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>5.2281111111111105E-3</v>
+        <v>5.2499814814814805E-3</v>
       </c>
       <c r="G127" s="13"/>
       <c r="H127" s="5">
         <f>AVERAGE(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>1.6452222222222226E-2</v>
+        <v>1.2409799999999995</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="5">
         <f>AVERAGE(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>1.5374276111111111</v>
+        <v>1.5370475740740741</v>
       </c>
       <c r="K127" s="13"/>
       <c r="L127" s="5">
         <f>AVERAGE(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>5.2281111111111105E-3</v>
+        <v>5.2499814814814805E-3</v>
       </c>
       <c r="M127" s="13"/>
       <c r="N127" s="5">
         <f>AVERAGE(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>2.3344148148148142E-2</v>
+        <v>2.5033518518518517E-2</v>
       </c>
       <c r="O127" s="13"/>
       <c r="P127" s="5">
         <f>AVERAGE(P8:P11,P18:P20,P22,P27:P30,P32:P33,P35:P38,P48:P51,P58:P60,P62,P67:P70,P72:P73,P75:P78,P88:P91,P98:P100,P102,P107:P110,P112:P113,P115:P118)</f>
-        <v>6.0163148148148146E-3</v>
+        <v>6.2041851851851841E-3</v>
       </c>
       <c r="Q127" s="13"/>
       <c r="R127" s="5">
         <f>AVERAGE(R8:R11,R18:R20,R22,R27:R30,R32:R33,R35:R38,R48:R51,R58:R60,R62,R67:R70,R72:R73,R75:R78,R88:R91,R98:R100,R102,R107:R110,R112:R113,R115:R118)</f>
-        <v>5.8080555555555524E-3</v>
+        <v>5.8302592592592564E-3</v>
       </c>
       <c r="S127" s="13"/>
     </row>
@@ -11112,47 +11188,47 @@
       </c>
       <c r="B128" s="3">
         <f>MEDIAN(B8:B11,B18:B20,B22,B27:B30,B32:B33,B35:B38,B48:B51,B58:B60,B62,B67:B70,B72:B73,B75:B78,B88:B91,B98:B100,B102,B107:B110,B112:B113,B115:B118)</f>
-        <v>7.0819999999999998E-3</v>
+        <v>7.574E-3</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="3">
         <f>MEDIAN(D8:D11,D18:D20,D22,D27:D30,D32:D33,D35:D38,D48:D51,D58:D60,D62,D67:D70,D72:D73,D75:D78,D88:D91,D98:D100,D102,D107:D110,D112:D113,D115:D118)</f>
-        <v>1.9705E-3</v>
+        <v>1.9710000000000001E-3</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="3">
         <f>MEDIAN(F8:F11,F18:F20,F22,F27:F30,F32:F33,F35:F38,F48:F51,F58:F60,F62,F67:F70,F72:F73,F75:F78,F88:F91,F98:F100,F102,F107:F110,F112:F113,F115:F118)</f>
-        <v>2.238E-3</v>
+        <v>2.2374999999999999E-3</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="3">
         <f>MEDIAN(H8:H11,H18:H20,H22,H27:H30,H32:H33,H35:H38,H48:H51,H58:H60,H62,H67:H70,H72:H73,H75:H78,H88:H91,H98:H100,H102,H107:H110,H112:H113,H115:H118)</f>
-        <v>7.0819999999999998E-3</v>
+        <v>1.3307625000000001</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="3">
         <f>MEDIAN(J8:J11,J18:J20,J22,J27:J30,J32:J33,J35:J38,J48:J51,J58:J60,J62,J67:J70,J72:J73,J75:J78,J88:J91,J98:J100,J102,J107:J110,J112:J113,J115:J118)</f>
-        <v>1.5261689999999999</v>
+        <v>1.5266885000000001</v>
       </c>
       <c r="K128" s="10"/>
       <c r="L128" s="3">
         <f>MEDIAN(L8:L11,L18:L20,L22,L27:L30,L32:L33,L35:L38,L48:L51,L58:L60,L62,L67:L70,L72:L73,L75:L78,L88:L91,L98:L100,L102,L107:L110,L112:L113,L115:L118)</f>
-        <v>2.238E-3</v>
+        <v>2.2374999999999999E-3</v>
       </c>
       <c r="M128" s="10"/>
       <c r="N128" s="3">
         <f>MEDIAN(N8:N11,N18:N20,N22,N27:N30,N32:N33,N35:N38,N48:N51,N58:N60,N62,N67:N70,N72:N73,N75:N78,N88:N91,N98:N100,N102,N107:N110,N112:N113,N115:N118)</f>
-        <v>1.0984500000000001E-2</v>
+        <v>1.129E-2</v>
       </c>
       <c r="O128" s="10"/>
       <c r="P128" s="3">
         <f>MEDIAN(P8:P11,P18:P20,P22,P27:P30,P32:P33,P35:P38,P48:P51,P58:P60,P62,P67:P70,P72:P73,P75:P78,P88:P91,P98:P100,P102,P107:P110,P112:P113,P115:P118)</f>
-        <v>2.5005000000000001E-3</v>
+        <v>2.5219999999999999E-3</v>
       </c>
       <c r="Q128" s="10"/>
       <c r="R128" s="3">
         <f>MEDIAN(R8:R11,R18:R20,R22,R27:R30,R32:R33,R35:R38,R48:R51,R58:R60,R62,R67:R70,R72:R73,R75:R78,R88:R91,R98:R100,R102,R107:R110,R112:R113,R115:R118)</f>
-        <v>2.3169999999999996E-3</v>
+        <v>2.3165E-3</v>
       </c>
       <c r="S128" s="10"/>
     </row>
@@ -11162,47 +11238,47 @@
       </c>
       <c r="B129" s="5">
         <f>AVERAGE(B43:B82)</f>
-        <v>2.4176824999999996E-2</v>
+        <v>2.6437675000000001E-2</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="5">
         <f>AVERAGE(D43:D82)</f>
-        <v>4.1596749999999998E-3</v>
+        <v>4.1704000000000003E-3</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="5">
         <f>AVERAGE(F43:F82)</f>
-        <v>4.4681E-3</v>
+        <v>4.5346500000000003E-3</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="5">
         <f>AVERAGE(H43:H82)</f>
-        <v>2.4176824999999996E-2</v>
+        <v>0.91120340000000011</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="5">
         <f>AVERAGE(J43:J82)</f>
-        <v>1.2613446499999998</v>
+        <v>1.2610449999999995</v>
       </c>
       <c r="K129" s="13"/>
       <c r="L129" s="5">
         <f>AVERAGE(L43:L82)</f>
-        <v>4.4681E-3</v>
+        <v>4.5346500000000003E-3</v>
       </c>
       <c r="M129" s="13"/>
       <c r="N129" s="5">
         <f>AVERAGE(N43:N82)</f>
-        <v>3.0400125000000007E-2</v>
+        <v>3.2690175000000002E-2</v>
       </c>
       <c r="O129" s="13"/>
       <c r="P129" s="5">
         <f>AVERAGE(P43:P82)</f>
-        <v>5.8985749999999979E-3</v>
+        <v>6.1061500000000012E-3</v>
       </c>
       <c r="Q129" s="13"/>
       <c r="R129" s="5">
         <f>AVERAGE(R43:R82)</f>
-        <v>5.3186249999999996E-3</v>
+        <v>5.3817249999999995E-3</v>
       </c>
       <c r="S129" s="13"/>
     </row>
@@ -11212,47 +11288,47 @@
       </c>
       <c r="B130" s="3">
         <f>MEDIAN(B43:B82)</f>
-        <v>1.7204500000000001E-2</v>
+        <v>1.8898499999999999E-2</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="3">
         <f>MEDIAN(D43:D82)</f>
-        <v>3.8105000000000005E-3</v>
+        <v>3.8114999999999998E-3</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="3">
         <f>MEDIAN(F43:F82)</f>
-        <v>4.1075E-3</v>
+        <v>4.1124999999999998E-3</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="3">
         <f>MEDIAN(H43:H82)</f>
-        <v>1.7204500000000001E-2</v>
+        <v>0.58379749999999997</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="3">
         <f>MEDIAN(J43:J82)</f>
-        <v>0.89414250000000006</v>
+        <v>0.89405449999999997</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="3">
         <f>MEDIAN(L43:L82)</f>
-        <v>4.1075E-3</v>
+        <v>4.1124999999999998E-3</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="3">
         <f>MEDIAN(N43:N82)</f>
-        <v>2.1657000000000003E-2</v>
+        <v>2.3730000000000001E-2</v>
       </c>
       <c r="O130" s="10"/>
       <c r="P130" s="3">
         <f>MEDIAN(P43:P82)</f>
-        <v>4.8570000000000002E-3</v>
+        <v>5.0419999999999996E-3</v>
       </c>
       <c r="Q130" s="10"/>
       <c r="R130" s="3">
         <f>MEDIAN(R43:R82)</f>
-        <v>4.3414999999999999E-3</v>
+        <v>4.3344999999999998E-3</v>
       </c>
       <c r="S130" s="10"/>
     </row>
@@ -11262,47 +11338,47 @@
       </c>
       <c r="B131" s="5">
         <f>AVERAGE(B83:B122)</f>
-        <v>1.5157999999999996E-2</v>
+        <v>1.6162174999999997E-2</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="5">
         <f>AVERAGE(D83:D122)</f>
-        <v>6.1861000000000008E-3</v>
+        <v>6.1973000000000011E-3</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="5">
         <f>AVERAGE(F83:F122)</f>
-        <v>6.5687499999999999E-3</v>
+        <v>6.6002499999999993E-3</v>
       </c>
       <c r="G131" s="13"/>
       <c r="H131" s="5">
         <f>AVERAGE(H83:H122)</f>
-        <v>1.5157999999999996E-2</v>
+        <v>0.76252854999999986</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="5">
         <f>AVERAGE(J83:J122)</f>
-        <v>1.0454113499999997</v>
+        <v>1.0453243749999999</v>
       </c>
       <c r="K131" s="13"/>
       <c r="L131" s="5">
         <f>AVERAGE(L83:L122)</f>
-        <v>6.5687499999999999E-3</v>
+        <v>6.6002499999999993E-3</v>
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="5">
         <f>AVERAGE(N83:N122)</f>
-        <v>2.1262325000000002E-2</v>
+        <v>2.2384849999999998E-2</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="5">
         <f>AVERAGE(P83:P122)</f>
-        <v>7.8629499999999988E-3</v>
+        <v>7.9888500000000005E-3</v>
       </c>
       <c r="Q131" s="13"/>
       <c r="R131" s="5">
         <f>AVERAGE(R83:R122)</f>
-        <v>6.7643999999999985E-3</v>
+        <v>6.7960499999999997E-3</v>
       </c>
       <c r="S131" s="13"/>
     </row>
@@ -11312,12 +11388,12 @@
       </c>
       <c r="B132" s="3">
         <f>MEDIAN(B83:B122)</f>
-        <v>9.9025000000000016E-3</v>
+        <v>1.0991500000000001E-2</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="3">
         <f>MEDIAN(D83:D122)</f>
-        <v>4.091E-3</v>
+        <v>4.0980000000000001E-3</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="3">
@@ -11327,12 +11403,12 @@
       <c r="G132" s="10"/>
       <c r="H132" s="3">
         <f>MEDIAN(H83:H122)</f>
-        <v>9.9025000000000016E-3</v>
+        <v>0.4904135</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="3">
         <f>MEDIAN(J83:J122)</f>
-        <v>0.78113500000000002</v>
+        <v>0.78097649999999996</v>
       </c>
       <c r="K132" s="10"/>
       <c r="L132" s="3">
@@ -11342,17 +11418,17 @@
       <c r="M132" s="10"/>
       <c r="N132" s="3">
         <f>MEDIAN(N83:N122)</f>
-        <v>1.4805E-2</v>
+        <v>1.48725E-2</v>
       </c>
       <c r="O132" s="10"/>
       <c r="P132" s="3">
         <f>MEDIAN(P83:P122)</f>
-        <v>4.6110000000000005E-3</v>
+        <v>4.6969999999999998E-3</v>
       </c>
       <c r="Q132" s="10"/>
       <c r="R132" s="3">
         <f>MEDIAN(R83:R122)</f>
-        <v>4.8544999999999994E-3</v>
+        <v>4.8539999999999998E-3</v>
       </c>
       <c r="S132" s="10"/>
     </row>
@@ -11362,47 +11438,47 @@
       </c>
       <c r="B133" s="5">
         <f>AVERAGE(B3:B42)</f>
-        <v>9.1411750000000014E-3</v>
+        <v>9.2721750000000006E-3</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="5">
         <f>AVERAGE(D3:D42)</f>
-        <v>6.2188250000000007E-3</v>
+        <v>6.2265000000000011E-3</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="5">
         <f>AVERAGE(F3:F42)</f>
-        <v>6.5211750000000014E-3</v>
+        <v>6.5261249999999989E-3</v>
       </c>
       <c r="G133" s="13"/>
       <c r="H133" s="5">
         <f>AVERAGE(H3:H42)</f>
-        <v>9.1411750000000014E-3</v>
+        <v>0.60111927500000006</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="5">
         <f>AVERAGE(J3:J42)</f>
-        <v>0.76213507500000011</v>
+        <v>0.76210275000000016</v>
       </c>
       <c r="K133" s="13"/>
       <c r="L133" s="5">
         <f>AVERAGE(L3:L42)</f>
-        <v>6.5211750000000014E-3</v>
+        <v>6.5261249999999989E-3</v>
       </c>
       <c r="M133" s="13"/>
       <c r="N133" s="5">
         <f>AVERAGE(N3:N42)</f>
-        <v>1.4695525000000001E-2</v>
+        <v>1.49389E-2</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="5">
         <f>AVERAGE(P3:P42)</f>
-        <v>7.8721999999999993E-3</v>
+        <v>7.8915249999999999E-3</v>
       </c>
       <c r="Q133" s="13"/>
       <c r="R133" s="5">
         <f>AVERAGE(R3:R42)</f>
-        <v>6.5538500000000017E-3</v>
+        <v>6.5587749999999985E-3</v>
       </c>
       <c r="S133" s="13"/>
     </row>
@@ -11417,7 +11493,7 @@
       <c r="C134" s="10"/>
       <c r="D134" s="3">
         <f>MEDIAN(D3:D42)</f>
-        <v>5.7835000000000004E-3</v>
+        <v>5.7850000000000002E-3</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="3">
@@ -11427,7 +11503,7 @@
       <c r="G134" s="10"/>
       <c r="H134" s="3">
         <f>MEDIAN(H3:H42)</f>
-        <v>6.8444999999999999E-3</v>
+        <v>0.36902250000000003</v>
       </c>
       <c r="I134" s="10"/>
       <c r="J134" s="3">
@@ -11442,7 +11518,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="3">
         <f>MEDIAN(N3:N42)</f>
-        <v>1.1294999999999999E-2</v>
+        <v>1.15815E-2</v>
       </c>
       <c r="O134" s="10"/>
       <c r="P134" s="3">
@@ -11452,7 +11528,7 @@
       <c r="Q134" s="10"/>
       <c r="R134" s="3">
         <f>MEDIAN(R3:R42)</f>
-        <v>5.8675000000000003E-3</v>
+        <v>5.8659999999999997E-3</v>
       </c>
       <c r="S134" s="10"/>
     </row>
